--- a/data/05_input/zm.rn20d3.xlsx
+++ b/data/05_input/zm.rn20d3.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/49A2A539-176C-4704-A3C1-4C1AC9837DE0/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/06_local_list_excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/F9DC3708-C82A-48A5-AB33-103D1FCC5F30/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/05_input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85D492F-E6BF-4B4E-B0D5-4866CCCBE1C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1242B4-8197-BF4F-A69E-8F96B4555743}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17360" yWindow="13740" windowWidth="13900" windowHeight="11260" xr2:uid="{67760308-83C7-244E-9309-67C566F6D356}"/>
+    <workbookView xWindow="5480" yWindow="2360" windowWidth="16220" windowHeight="14520" xr2:uid="{67760308-83C7-244E-9309-67C566F6D356}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2640" uniqueCount="1082">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3107" uniqueCount="1083">
   <si>
     <t>SampleID</t>
   </si>
@@ -3271,6 +3271,9 @@
   </si>
   <si>
     <t>/home/hirschc1/shared/Archive/reads/biomap/RNAseq/JGI.230715.ZeamayEProfiling_4/9235.3.125924.CCACGC.fastq.gz</t>
+  </si>
+  <si>
+    <t>PE</t>
   </si>
 </sst>
 </file>
@@ -3625,8 +3628,8 @@
   <dimension ref="A1:L468"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2:H175"/>
+      <pane ySplit="1" topLeftCell="A447" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2:J468"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3691,8 +3694,8 @@
       <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="b">
-        <v>1</v>
+      <c r="I2" t="s">
+        <v>1082</v>
       </c>
       <c r="J2" t="s">
         <v>15</v>
@@ -3717,8 +3720,8 @@
       <c r="G3" t="s">
         <v>17</v>
       </c>
-      <c r="I3" t="b">
-        <v>1</v>
+      <c r="I3" t="s">
+        <v>1082</v>
       </c>
       <c r="J3" t="s">
         <v>18</v>
@@ -3743,8 +3746,8 @@
       <c r="G4" t="s">
         <v>20</v>
       </c>
-      <c r="I4" t="b">
-        <v>1</v>
+      <c r="I4" t="s">
+        <v>1082</v>
       </c>
       <c r="J4" t="s">
         <v>21</v>
@@ -3769,8 +3772,8 @@
       <c r="G5" t="s">
         <v>23</v>
       </c>
-      <c r="I5" t="b">
-        <v>1</v>
+      <c r="I5" t="s">
+        <v>1082</v>
       </c>
       <c r="J5" t="s">
         <v>24</v>
@@ -3795,8 +3798,8 @@
       <c r="G6" t="s">
         <v>26</v>
       </c>
-      <c r="I6" t="b">
-        <v>1</v>
+      <c r="I6" t="s">
+        <v>1082</v>
       </c>
       <c r="J6" t="s">
         <v>27</v>
@@ -3821,8 +3824,8 @@
       <c r="G7" t="s">
         <v>29</v>
       </c>
-      <c r="I7" t="b">
-        <v>1</v>
+      <c r="I7" t="s">
+        <v>1082</v>
       </c>
       <c r="J7" t="s">
         <v>30</v>
@@ -3847,8 +3850,8 @@
       <c r="G8" t="s">
         <v>32</v>
       </c>
-      <c r="I8" t="b">
-        <v>1</v>
+      <c r="I8" t="s">
+        <v>1082</v>
       </c>
       <c r="J8" t="s">
         <v>33</v>
@@ -3873,8 +3876,8 @@
       <c r="G9" t="s">
         <v>35</v>
       </c>
-      <c r="I9" t="b">
-        <v>1</v>
+      <c r="I9" t="s">
+        <v>1082</v>
       </c>
       <c r="J9" t="s">
         <v>36</v>
@@ -3899,8 +3902,8 @@
       <c r="G10" t="s">
         <v>38</v>
       </c>
-      <c r="I10" t="b">
-        <v>1</v>
+      <c r="I10" t="s">
+        <v>1082</v>
       </c>
       <c r="J10" t="s">
         <v>39</v>
@@ -3925,8 +3928,8 @@
       <c r="G11" t="s">
         <v>41</v>
       </c>
-      <c r="I11" t="b">
-        <v>1</v>
+      <c r="I11" t="s">
+        <v>1082</v>
       </c>
       <c r="J11" t="s">
         <v>42</v>
@@ -3951,8 +3954,8 @@
       <c r="G12" t="s">
         <v>44</v>
       </c>
-      <c r="I12" t="b">
-        <v>1</v>
+      <c r="I12" t="s">
+        <v>1082</v>
       </c>
       <c r="J12" t="s">
         <v>45</v>
@@ -3977,8 +3980,8 @@
       <c r="G13" t="s">
         <v>47</v>
       </c>
-      <c r="I13" t="b">
-        <v>1</v>
+      <c r="I13" t="s">
+        <v>1082</v>
       </c>
       <c r="J13" t="s">
         <v>48</v>
@@ -4003,8 +4006,8 @@
       <c r="G14" t="s">
         <v>50</v>
       </c>
-      <c r="I14" t="b">
-        <v>1</v>
+      <c r="I14" t="s">
+        <v>1082</v>
       </c>
       <c r="J14" t="s">
         <v>51</v>
@@ -4029,8 +4032,8 @@
       <c r="G15" t="s">
         <v>53</v>
       </c>
-      <c r="I15" t="b">
-        <v>1</v>
+      <c r="I15" t="s">
+        <v>1082</v>
       </c>
       <c r="J15" t="s">
         <v>54</v>
@@ -4055,8 +4058,8 @@
       <c r="G16" t="s">
         <v>56</v>
       </c>
-      <c r="I16" t="b">
-        <v>1</v>
+      <c r="I16" t="s">
+        <v>1082</v>
       </c>
       <c r="J16" t="s">
         <v>57</v>
@@ -4081,8 +4084,8 @@
       <c r="G17" t="s">
         <v>59</v>
       </c>
-      <c r="I17" t="b">
-        <v>1</v>
+      <c r="I17" t="s">
+        <v>1082</v>
       </c>
       <c r="J17" t="s">
         <v>60</v>
@@ -4107,8 +4110,8 @@
       <c r="G18" t="s">
         <v>62</v>
       </c>
-      <c r="I18" t="b">
-        <v>1</v>
+      <c r="I18" t="s">
+        <v>1082</v>
       </c>
       <c r="J18" t="s">
         <v>63</v>
@@ -4133,8 +4136,8 @@
       <c r="G19" t="s">
         <v>65</v>
       </c>
-      <c r="I19" t="b">
-        <v>1</v>
+      <c r="I19" t="s">
+        <v>1082</v>
       </c>
       <c r="J19" t="s">
         <v>66</v>
@@ -4159,8 +4162,8 @@
       <c r="G20" t="s">
         <v>68</v>
       </c>
-      <c r="I20" t="b">
-        <v>1</v>
+      <c r="I20" t="s">
+        <v>1082</v>
       </c>
       <c r="J20" t="s">
         <v>69</v>
@@ -4185,8 +4188,8 @@
       <c r="G21" t="s">
         <v>71</v>
       </c>
-      <c r="I21" t="b">
-        <v>1</v>
+      <c r="I21" t="s">
+        <v>1082</v>
       </c>
       <c r="J21" t="s">
         <v>72</v>
@@ -4211,8 +4214,8 @@
       <c r="G22" t="s">
         <v>74</v>
       </c>
-      <c r="I22" t="b">
-        <v>1</v>
+      <c r="I22" t="s">
+        <v>1082</v>
       </c>
       <c r="J22" t="s">
         <v>75</v>
@@ -4237,8 +4240,8 @@
       <c r="G23" t="s">
         <v>77</v>
       </c>
-      <c r="I23" t="b">
-        <v>1</v>
+      <c r="I23" t="s">
+        <v>1082</v>
       </c>
       <c r="J23" t="s">
         <v>78</v>
@@ -4263,8 +4266,8 @@
       <c r="G24" t="s">
         <v>80</v>
       </c>
-      <c r="I24" t="b">
-        <v>1</v>
+      <c r="I24" t="s">
+        <v>1082</v>
       </c>
       <c r="J24" t="s">
         <v>81</v>
@@ -4289,8 +4292,8 @@
       <c r="G25" t="s">
         <v>83</v>
       </c>
-      <c r="I25" t="b">
-        <v>1</v>
+      <c r="I25" t="s">
+        <v>1082</v>
       </c>
       <c r="J25" t="s">
         <v>84</v>
@@ -4315,8 +4318,8 @@
       <c r="G26" t="s">
         <v>86</v>
       </c>
-      <c r="I26" t="b">
-        <v>1</v>
+      <c r="I26" t="s">
+        <v>1082</v>
       </c>
       <c r="J26" t="s">
         <v>87</v>
@@ -4341,8 +4344,8 @@
       <c r="G27" t="s">
         <v>89</v>
       </c>
-      <c r="I27" t="b">
-        <v>1</v>
+      <c r="I27" t="s">
+        <v>1082</v>
       </c>
       <c r="J27" t="s">
         <v>90</v>
@@ -4367,8 +4370,8 @@
       <c r="G28" t="s">
         <v>92</v>
       </c>
-      <c r="I28" t="b">
-        <v>1</v>
+      <c r="I28" t="s">
+        <v>1082</v>
       </c>
       <c r="J28" t="s">
         <v>93</v>
@@ -4393,8 +4396,8 @@
       <c r="G29" t="s">
         <v>95</v>
       </c>
-      <c r="I29" t="b">
-        <v>1</v>
+      <c r="I29" t="s">
+        <v>1082</v>
       </c>
       <c r="J29" t="s">
         <v>96</v>
@@ -4419,8 +4422,8 @@
       <c r="G30" t="s">
         <v>98</v>
       </c>
-      <c r="I30" t="b">
-        <v>1</v>
+      <c r="I30" t="s">
+        <v>1082</v>
       </c>
       <c r="J30" t="s">
         <v>99</v>
@@ -4445,8 +4448,8 @@
       <c r="G31" t="s">
         <v>101</v>
       </c>
-      <c r="I31" t="b">
-        <v>1</v>
+      <c r="I31" t="s">
+        <v>1082</v>
       </c>
       <c r="J31" t="s">
         <v>102</v>
@@ -4471,8 +4474,8 @@
       <c r="G32" t="s">
         <v>104</v>
       </c>
-      <c r="I32" t="b">
-        <v>1</v>
+      <c r="I32" t="s">
+        <v>1082</v>
       </c>
       <c r="J32" t="s">
         <v>105</v>
@@ -4497,8 +4500,8 @@
       <c r="G33" t="s">
         <v>108</v>
       </c>
-      <c r="I33" t="b">
-        <v>1</v>
+      <c r="I33" t="s">
+        <v>1082</v>
       </c>
       <c r="J33" t="s">
         <v>109</v>
@@ -4523,8 +4526,8 @@
       <c r="G34" t="s">
         <v>14</v>
       </c>
-      <c r="I34" t="b">
-        <v>1</v>
+      <c r="I34" t="s">
+        <v>1082</v>
       </c>
       <c r="J34" t="s">
         <v>111</v>
@@ -4549,8 +4552,8 @@
       <c r="G35" t="s">
         <v>17</v>
       </c>
-      <c r="I35" t="b">
-        <v>1</v>
+      <c r="I35" t="s">
+        <v>1082</v>
       </c>
       <c r="J35" t="s">
         <v>113</v>
@@ -4575,8 +4578,8 @@
       <c r="G36" t="s">
         <v>20</v>
       </c>
-      <c r="I36" t="b">
-        <v>1</v>
+      <c r="I36" t="s">
+        <v>1082</v>
       </c>
       <c r="J36" t="s">
         <v>115</v>
@@ -4601,8 +4604,8 @@
       <c r="G37" t="s">
         <v>23</v>
       </c>
-      <c r="I37" t="b">
-        <v>1</v>
+      <c r="I37" t="s">
+        <v>1082</v>
       </c>
       <c r="J37" t="s">
         <v>117</v>
@@ -4627,8 +4630,8 @@
       <c r="G38" t="s">
         <v>119</v>
       </c>
-      <c r="I38" t="b">
-        <v>1</v>
+      <c r="I38" t="s">
+        <v>1082</v>
       </c>
       <c r="J38" t="s">
         <v>120</v>
@@ -4653,8 +4656,8 @@
       <c r="G39" t="s">
         <v>26</v>
       </c>
-      <c r="I39" t="b">
-        <v>1</v>
+      <c r="I39" t="s">
+        <v>1082</v>
       </c>
       <c r="J39" t="s">
         <v>122</v>
@@ -4679,8 +4682,8 @@
       <c r="G40" t="s">
         <v>29</v>
       </c>
-      <c r="I40" t="b">
-        <v>1</v>
+      <c r="I40" t="s">
+        <v>1082</v>
       </c>
       <c r="J40" t="s">
         <v>124</v>
@@ -4705,8 +4708,8 @@
       <c r="G41" t="s">
         <v>32</v>
       </c>
-      <c r="I41" t="b">
-        <v>1</v>
+      <c r="I41" t="s">
+        <v>1082</v>
       </c>
       <c r="J41" t="s">
         <v>126</v>
@@ -4731,8 +4734,8 @@
       <c r="G42" t="s">
         <v>35</v>
       </c>
-      <c r="I42" t="b">
-        <v>1</v>
+      <c r="I42" t="s">
+        <v>1082</v>
       </c>
       <c r="J42" t="s">
         <v>128</v>
@@ -4757,8 +4760,8 @@
       <c r="G43" t="s">
         <v>38</v>
       </c>
-      <c r="I43" t="b">
-        <v>1</v>
+      <c r="I43" t="s">
+        <v>1082</v>
       </c>
       <c r="J43" t="s">
         <v>130</v>
@@ -4783,8 +4786,8 @@
       <c r="G44" t="s">
         <v>41</v>
       </c>
-      <c r="I44" t="b">
-        <v>1</v>
+      <c r="I44" t="s">
+        <v>1082</v>
       </c>
       <c r="J44" t="s">
         <v>132</v>
@@ -4809,8 +4812,8 @@
       <c r="G45" t="s">
         <v>44</v>
       </c>
-      <c r="I45" t="b">
-        <v>1</v>
+      <c r="I45" t="s">
+        <v>1082</v>
       </c>
       <c r="J45" t="s">
         <v>134</v>
@@ -4835,8 +4838,8 @@
       <c r="G46" t="s">
         <v>47</v>
       </c>
-      <c r="I46" t="b">
-        <v>1</v>
+      <c r="I46" t="s">
+        <v>1082</v>
       </c>
       <c r="J46" t="s">
         <v>136</v>
@@ -4861,8 +4864,8 @@
       <c r="G47" t="s">
         <v>50</v>
       </c>
-      <c r="I47" t="b">
-        <v>1</v>
+      <c r="I47" t="s">
+        <v>1082</v>
       </c>
       <c r="J47" t="s">
         <v>138</v>
@@ -4887,8 +4890,8 @@
       <c r="G48" t="s">
         <v>53</v>
       </c>
-      <c r="I48" t="b">
-        <v>1</v>
+      <c r="I48" t="s">
+        <v>1082</v>
       </c>
       <c r="J48" t="s">
         <v>140</v>
@@ -4913,8 +4916,8 @@
       <c r="G49" t="s">
         <v>56</v>
       </c>
-      <c r="I49" t="b">
-        <v>1</v>
+      <c r="I49" t="s">
+        <v>1082</v>
       </c>
       <c r="J49" t="s">
         <v>142</v>
@@ -4939,8 +4942,8 @@
       <c r="G50" t="s">
         <v>59</v>
       </c>
-      <c r="I50" t="b">
-        <v>1</v>
+      <c r="I50" t="s">
+        <v>1082</v>
       </c>
       <c r="J50" t="s">
         <v>144</v>
@@ -4965,8 +4968,8 @@
       <c r="G51" t="s">
         <v>62</v>
       </c>
-      <c r="I51" t="b">
-        <v>1</v>
+      <c r="I51" t="s">
+        <v>1082</v>
       </c>
       <c r="J51" t="s">
         <v>146</v>
@@ -4991,8 +4994,8 @@
       <c r="G52" t="s">
         <v>65</v>
       </c>
-      <c r="I52" t="b">
-        <v>1</v>
+      <c r="I52" t="s">
+        <v>1082</v>
       </c>
       <c r="J52" t="s">
         <v>148</v>
@@ -5017,8 +5020,8 @@
       <c r="G53" t="s">
         <v>68</v>
       </c>
-      <c r="I53" t="b">
-        <v>1</v>
+      <c r="I53" t="s">
+        <v>1082</v>
       </c>
       <c r="J53" t="s">
         <v>150</v>
@@ -5043,8 +5046,8 @@
       <c r="G54" t="s">
         <v>71</v>
       </c>
-      <c r="I54" t="b">
-        <v>1</v>
+      <c r="I54" t="s">
+        <v>1082</v>
       </c>
       <c r="J54" t="s">
         <v>152</v>
@@ -5069,8 +5072,8 @@
       <c r="G55" t="s">
         <v>74</v>
       </c>
-      <c r="I55" t="b">
-        <v>1</v>
+      <c r="I55" t="s">
+        <v>1082</v>
       </c>
       <c r="J55" t="s">
         <v>154</v>
@@ -5095,8 +5098,8 @@
       <c r="G56" t="s">
         <v>156</v>
       </c>
-      <c r="I56" t="b">
-        <v>1</v>
+      <c r="I56" t="s">
+        <v>1082</v>
       </c>
       <c r="J56" t="s">
         <v>157</v>
@@ -5121,8 +5124,8 @@
       <c r="G57" t="s">
         <v>77</v>
       </c>
-      <c r="I57" t="b">
-        <v>1</v>
+      <c r="I57" t="s">
+        <v>1082</v>
       </c>
       <c r="J57" t="s">
         <v>159</v>
@@ -5147,8 +5150,8 @@
       <c r="G58" t="s">
         <v>80</v>
       </c>
-      <c r="I58" t="b">
-        <v>1</v>
+      <c r="I58" t="s">
+        <v>1082</v>
       </c>
       <c r="J58" t="s">
         <v>161</v>
@@ -5173,8 +5176,8 @@
       <c r="G59" t="s">
         <v>83</v>
       </c>
-      <c r="I59" t="b">
-        <v>1</v>
+      <c r="I59" t="s">
+        <v>1082</v>
       </c>
       <c r="J59" t="s">
         <v>163</v>
@@ -5199,8 +5202,8 @@
       <c r="G60" t="s">
         <v>86</v>
       </c>
-      <c r="I60" t="b">
-        <v>1</v>
+      <c r="I60" t="s">
+        <v>1082</v>
       </c>
       <c r="J60" t="s">
         <v>165</v>
@@ -5225,8 +5228,8 @@
       <c r="G61" t="s">
         <v>89</v>
       </c>
-      <c r="I61" t="b">
-        <v>1</v>
+      <c r="I61" t="s">
+        <v>1082</v>
       </c>
       <c r="J61" t="s">
         <v>167</v>
@@ -5251,8 +5254,8 @@
       <c r="G62" t="s">
         <v>92</v>
       </c>
-      <c r="I62" t="b">
-        <v>1</v>
+      <c r="I62" t="s">
+        <v>1082</v>
       </c>
       <c r="J62" t="s">
         <v>169</v>
@@ -5277,8 +5280,8 @@
       <c r="G63" t="s">
         <v>95</v>
       </c>
-      <c r="I63" t="b">
-        <v>1</v>
+      <c r="I63" t="s">
+        <v>1082</v>
       </c>
       <c r="J63" t="s">
         <v>171</v>
@@ -5303,8 +5306,8 @@
       <c r="G64" t="s">
         <v>98</v>
       </c>
-      <c r="I64" t="b">
-        <v>1</v>
+      <c r="I64" t="s">
+        <v>1082</v>
       </c>
       <c r="J64" t="s">
         <v>173</v>
@@ -5329,8 +5332,8 @@
       <c r="G65" t="s">
         <v>101</v>
       </c>
-      <c r="I65" t="b">
-        <v>1</v>
+      <c r="I65" t="s">
+        <v>1082</v>
       </c>
       <c r="J65" t="s">
         <v>175</v>
@@ -5355,8 +5358,8 @@
       <c r="G66" t="s">
         <v>104</v>
       </c>
-      <c r="I66" t="b">
-        <v>1</v>
+      <c r="I66" t="s">
+        <v>1082</v>
       </c>
       <c r="J66" t="s">
         <v>177</v>
@@ -5381,8 +5384,8 @@
       <c r="G67" t="s">
         <v>108</v>
       </c>
-      <c r="I67" t="b">
-        <v>1</v>
+      <c r="I67" t="s">
+        <v>1082</v>
       </c>
       <c r="J67" t="s">
         <v>180</v>
@@ -5407,8 +5410,8 @@
       <c r="G68" t="s">
         <v>14</v>
       </c>
-      <c r="I68" t="b">
-        <v>1</v>
+      <c r="I68" t="s">
+        <v>1082</v>
       </c>
       <c r="J68" t="s">
         <v>182</v>
@@ -5433,8 +5436,8 @@
       <c r="G69" t="s">
         <v>17</v>
       </c>
-      <c r="I69" t="b">
-        <v>1</v>
+      <c r="I69" t="s">
+        <v>1082</v>
       </c>
       <c r="J69" t="s">
         <v>184</v>
@@ -5459,8 +5462,8 @@
       <c r="G70" t="s">
         <v>20</v>
       </c>
-      <c r="I70" t="b">
-        <v>1</v>
+      <c r="I70" t="s">
+        <v>1082</v>
       </c>
       <c r="J70" t="s">
         <v>186</v>
@@ -5485,8 +5488,8 @@
       <c r="G71" t="s">
         <v>23</v>
       </c>
-      <c r="I71" t="b">
-        <v>1</v>
+      <c r="I71" t="s">
+        <v>1082</v>
       </c>
       <c r="J71" t="s">
         <v>188</v>
@@ -5511,8 +5514,8 @@
       <c r="G72" t="s">
         <v>119</v>
       </c>
-      <c r="I72" t="b">
-        <v>1</v>
+      <c r="I72" t="s">
+        <v>1082</v>
       </c>
       <c r="J72" t="s">
         <v>190</v>
@@ -5537,8 +5540,8 @@
       <c r="G73" t="s">
         <v>26</v>
       </c>
-      <c r="I73" t="b">
-        <v>1</v>
+      <c r="I73" t="s">
+        <v>1082</v>
       </c>
       <c r="J73" t="s">
         <v>192</v>
@@ -5563,8 +5566,8 @@
       <c r="G74" t="s">
         <v>29</v>
       </c>
-      <c r="I74" t="b">
-        <v>1</v>
+      <c r="I74" t="s">
+        <v>1082</v>
       </c>
       <c r="J74" t="s">
         <v>194</v>
@@ -5589,8 +5592,8 @@
       <c r="G75" t="s">
         <v>32</v>
       </c>
-      <c r="I75" t="b">
-        <v>1</v>
+      <c r="I75" t="s">
+        <v>1082</v>
       </c>
       <c r="J75" t="s">
         <v>196</v>
@@ -5615,8 +5618,8 @@
       <c r="G76" t="s">
         <v>35</v>
       </c>
-      <c r="I76" t="b">
-        <v>1</v>
+      <c r="I76" t="s">
+        <v>1082</v>
       </c>
       <c r="J76" t="s">
         <v>198</v>
@@ -5641,8 +5644,8 @@
       <c r="G77" t="s">
         <v>38</v>
       </c>
-      <c r="I77" t="b">
-        <v>1</v>
+      <c r="I77" t="s">
+        <v>1082</v>
       </c>
       <c r="J77" t="s">
         <v>200</v>
@@ -5667,8 +5670,8 @@
       <c r="G78" t="s">
         <v>41</v>
       </c>
-      <c r="I78" t="b">
-        <v>1</v>
+      <c r="I78" t="s">
+        <v>1082</v>
       </c>
       <c r="J78" t="s">
         <v>202</v>
@@ -5693,8 +5696,8 @@
       <c r="G79" t="s">
         <v>44</v>
       </c>
-      <c r="I79" t="b">
-        <v>1</v>
+      <c r="I79" t="s">
+        <v>1082</v>
       </c>
       <c r="J79" t="s">
         <v>204</v>
@@ -5719,8 +5722,8 @@
       <c r="G80" t="s">
         <v>47</v>
       </c>
-      <c r="I80" t="b">
-        <v>1</v>
+      <c r="I80" t="s">
+        <v>1082</v>
       </c>
       <c r="J80" t="s">
         <v>206</v>
@@ -5745,8 +5748,8 @@
       <c r="G81" t="s">
         <v>50</v>
       </c>
-      <c r="I81" t="b">
-        <v>1</v>
+      <c r="I81" t="s">
+        <v>1082</v>
       </c>
       <c r="J81" t="s">
         <v>208</v>
@@ -5771,8 +5774,8 @@
       <c r="G82" t="s">
         <v>53</v>
       </c>
-      <c r="I82" t="b">
-        <v>1</v>
+      <c r="I82" t="s">
+        <v>1082</v>
       </c>
       <c r="J82" t="s">
         <v>210</v>
@@ -5797,8 +5800,8 @@
       <c r="G83" t="s">
         <v>56</v>
       </c>
-      <c r="I83" t="b">
-        <v>1</v>
+      <c r="I83" t="s">
+        <v>1082</v>
       </c>
       <c r="J83" t="s">
         <v>212</v>
@@ -5823,8 +5826,8 @@
       <c r="G84" t="s">
         <v>59</v>
       </c>
-      <c r="I84" t="b">
-        <v>1</v>
+      <c r="I84" t="s">
+        <v>1082</v>
       </c>
       <c r="J84" t="s">
         <v>214</v>
@@ -5849,8 +5852,8 @@
       <c r="G85" t="s">
         <v>62</v>
       </c>
-      <c r="I85" t="b">
-        <v>1</v>
+      <c r="I85" t="s">
+        <v>1082</v>
       </c>
       <c r="J85" t="s">
         <v>216</v>
@@ -5875,8 +5878,8 @@
       <c r="G86" t="s">
         <v>65</v>
       </c>
-      <c r="I86" t="b">
-        <v>1</v>
+      <c r="I86" t="s">
+        <v>1082</v>
       </c>
       <c r="J86" t="s">
         <v>218</v>
@@ -5901,8 +5904,8 @@
       <c r="G87" t="s">
         <v>68</v>
       </c>
-      <c r="I87" t="b">
-        <v>1</v>
+      <c r="I87" t="s">
+        <v>1082</v>
       </c>
       <c r="J87" t="s">
         <v>220</v>
@@ -5927,8 +5930,8 @@
       <c r="G88" t="s">
         <v>71</v>
       </c>
-      <c r="I88" t="b">
-        <v>1</v>
+      <c r="I88" t="s">
+        <v>1082</v>
       </c>
       <c r="J88" t="s">
         <v>222</v>
@@ -5953,8 +5956,8 @@
       <c r="G89" t="s">
         <v>74</v>
       </c>
-      <c r="I89" t="b">
-        <v>1</v>
+      <c r="I89" t="s">
+        <v>1082</v>
       </c>
       <c r="J89" t="s">
         <v>224</v>
@@ -5979,8 +5982,8 @@
       <c r="G90" t="s">
         <v>156</v>
       </c>
-      <c r="I90" t="b">
-        <v>1</v>
+      <c r="I90" t="s">
+        <v>1082</v>
       </c>
       <c r="J90" t="s">
         <v>226</v>
@@ -6005,8 +6008,8 @@
       <c r="G91" t="s">
         <v>77</v>
       </c>
-      <c r="I91" t="b">
-        <v>1</v>
+      <c r="I91" t="s">
+        <v>1082</v>
       </c>
       <c r="J91" t="s">
         <v>228</v>
@@ -6031,8 +6034,8 @@
       <c r="G92" t="s">
         <v>80</v>
       </c>
-      <c r="I92" t="b">
-        <v>1</v>
+      <c r="I92" t="s">
+        <v>1082</v>
       </c>
       <c r="J92" t="s">
         <v>230</v>
@@ -6057,8 +6060,8 @@
       <c r="G93" t="s">
         <v>83</v>
       </c>
-      <c r="I93" t="b">
-        <v>1</v>
+      <c r="I93" t="s">
+        <v>1082</v>
       </c>
       <c r="J93" t="s">
         <v>232</v>
@@ -6083,8 +6086,8 @@
       <c r="G94" t="s">
         <v>86</v>
       </c>
-      <c r="I94" t="b">
-        <v>1</v>
+      <c r="I94" t="s">
+        <v>1082</v>
       </c>
       <c r="J94" t="s">
         <v>234</v>
@@ -6109,8 +6112,8 @@
       <c r="G95" t="s">
         <v>89</v>
       </c>
-      <c r="I95" t="b">
-        <v>1</v>
+      <c r="I95" t="s">
+        <v>1082</v>
       </c>
       <c r="J95" t="s">
         <v>236</v>
@@ -6135,8 +6138,8 @@
       <c r="G96" t="s">
         <v>92</v>
       </c>
-      <c r="I96" t="b">
-        <v>1</v>
+      <c r="I96" t="s">
+        <v>1082</v>
       </c>
       <c r="J96" t="s">
         <v>238</v>
@@ -6161,8 +6164,8 @@
       <c r="G97" t="s">
         <v>95</v>
       </c>
-      <c r="I97" t="b">
-        <v>1</v>
+      <c r="I97" t="s">
+        <v>1082</v>
       </c>
       <c r="J97" t="s">
         <v>240</v>
@@ -6187,8 +6190,8 @@
       <c r="G98" t="s">
         <v>98</v>
       </c>
-      <c r="I98" t="b">
-        <v>1</v>
+      <c r="I98" t="s">
+        <v>1082</v>
       </c>
       <c r="J98" t="s">
         <v>242</v>
@@ -6213,8 +6216,8 @@
       <c r="G99" t="s">
         <v>101</v>
       </c>
-      <c r="I99" t="b">
-        <v>1</v>
+      <c r="I99" t="s">
+        <v>1082</v>
       </c>
       <c r="J99" t="s">
         <v>244</v>
@@ -6239,8 +6242,8 @@
       <c r="G100" t="s">
         <v>104</v>
       </c>
-      <c r="I100" t="b">
-        <v>1</v>
+      <c r="I100" t="s">
+        <v>1082</v>
       </c>
       <c r="J100" t="s">
         <v>246</v>
@@ -6265,8 +6268,8 @@
       <c r="G101" t="s">
         <v>108</v>
       </c>
-      <c r="I101" t="b">
-        <v>1</v>
+      <c r="I101" t="s">
+        <v>1082</v>
       </c>
       <c r="J101" t="s">
         <v>249</v>
@@ -6291,8 +6294,8 @@
       <c r="G102" t="s">
         <v>14</v>
       </c>
-      <c r="I102" t="b">
-        <v>1</v>
+      <c r="I102" t="s">
+        <v>1082</v>
       </c>
       <c r="J102" t="s">
         <v>251</v>
@@ -6317,8 +6320,8 @@
       <c r="G103" t="s">
         <v>17</v>
       </c>
-      <c r="I103" t="b">
-        <v>1</v>
+      <c r="I103" t="s">
+        <v>1082</v>
       </c>
       <c r="J103" t="s">
         <v>253</v>
@@ -6343,8 +6346,8 @@
       <c r="G104" t="s">
         <v>20</v>
       </c>
-      <c r="I104" t="b">
-        <v>1</v>
+      <c r="I104" t="s">
+        <v>1082</v>
       </c>
       <c r="J104" t="s">
         <v>255</v>
@@ -6369,8 +6372,8 @@
       <c r="G105" t="s">
         <v>23</v>
       </c>
-      <c r="I105" t="b">
-        <v>1</v>
+      <c r="I105" t="s">
+        <v>1082</v>
       </c>
       <c r="J105" t="s">
         <v>257</v>
@@ -6395,8 +6398,8 @@
       <c r="G106" t="s">
         <v>119</v>
       </c>
-      <c r="I106" t="b">
-        <v>1</v>
+      <c r="I106" t="s">
+        <v>1082</v>
       </c>
       <c r="J106" t="s">
         <v>259</v>
@@ -6421,8 +6424,8 @@
       <c r="G107" t="s">
         <v>26</v>
       </c>
-      <c r="I107" t="b">
-        <v>1</v>
+      <c r="I107" t="s">
+        <v>1082</v>
       </c>
       <c r="J107" t="s">
         <v>261</v>
@@ -6447,8 +6450,8 @@
       <c r="G108" t="s">
         <v>29</v>
       </c>
-      <c r="I108" t="b">
-        <v>1</v>
+      <c r="I108" t="s">
+        <v>1082</v>
       </c>
       <c r="J108" t="s">
         <v>263</v>
@@ -6473,8 +6476,8 @@
       <c r="G109" t="s">
         <v>32</v>
       </c>
-      <c r="I109" t="b">
-        <v>1</v>
+      <c r="I109" t="s">
+        <v>1082</v>
       </c>
       <c r="J109" t="s">
         <v>265</v>
@@ -6499,8 +6502,8 @@
       <c r="G110" t="s">
         <v>35</v>
       </c>
-      <c r="I110" t="b">
-        <v>1</v>
+      <c r="I110" t="s">
+        <v>1082</v>
       </c>
       <c r="J110" t="s">
         <v>267</v>
@@ -6525,8 +6528,8 @@
       <c r="G111" t="s">
         <v>38</v>
       </c>
-      <c r="I111" t="b">
-        <v>1</v>
+      <c r="I111" t="s">
+        <v>1082</v>
       </c>
       <c r="J111" t="s">
         <v>269</v>
@@ -6551,8 +6554,8 @@
       <c r="G112" t="s">
         <v>41</v>
       </c>
-      <c r="I112" t="b">
-        <v>1</v>
+      <c r="I112" t="s">
+        <v>1082</v>
       </c>
       <c r="J112" t="s">
         <v>271</v>
@@ -6577,8 +6580,8 @@
       <c r="G113" t="s">
         <v>44</v>
       </c>
-      <c r="I113" t="b">
-        <v>1</v>
+      <c r="I113" t="s">
+        <v>1082</v>
       </c>
       <c r="J113" t="s">
         <v>273</v>
@@ -6603,8 +6606,8 @@
       <c r="G114" t="s">
         <v>275</v>
       </c>
-      <c r="I114" t="b">
-        <v>1</v>
+      <c r="I114" t="s">
+        <v>1082</v>
       </c>
       <c r="J114" t="s">
         <v>276</v>
@@ -6629,8 +6632,8 @@
       <c r="G115" t="s">
         <v>47</v>
       </c>
-      <c r="I115" t="b">
-        <v>1</v>
+      <c r="I115" t="s">
+        <v>1082</v>
       </c>
       <c r="J115" t="s">
         <v>278</v>
@@ -6655,8 +6658,8 @@
       <c r="G116" t="s">
         <v>50</v>
       </c>
-      <c r="I116" t="b">
-        <v>1</v>
+      <c r="I116" t="s">
+        <v>1082</v>
       </c>
       <c r="J116" t="s">
         <v>280</v>
@@ -6681,8 +6684,8 @@
       <c r="G117" t="s">
         <v>53</v>
       </c>
-      <c r="I117" t="b">
-        <v>1</v>
+      <c r="I117" t="s">
+        <v>1082</v>
       </c>
       <c r="J117" t="s">
         <v>282</v>
@@ -6707,8 +6710,8 @@
       <c r="G118" t="s">
         <v>56</v>
       </c>
-      <c r="I118" t="b">
-        <v>1</v>
+      <c r="I118" t="s">
+        <v>1082</v>
       </c>
       <c r="J118" t="s">
         <v>284</v>
@@ -6733,8 +6736,8 @@
       <c r="G119" t="s">
         <v>59</v>
       </c>
-      <c r="I119" t="b">
-        <v>1</v>
+      <c r="I119" t="s">
+        <v>1082</v>
       </c>
       <c r="J119" t="s">
         <v>286</v>
@@ -6759,8 +6762,8 @@
       <c r="G120" t="s">
         <v>62</v>
       </c>
-      <c r="I120" t="b">
-        <v>1</v>
+      <c r="I120" t="s">
+        <v>1082</v>
       </c>
       <c r="J120" t="s">
         <v>288</v>
@@ -6785,8 +6788,8 @@
       <c r="G121" t="s">
         <v>65</v>
       </c>
-      <c r="I121" t="b">
-        <v>1</v>
+      <c r="I121" t="s">
+        <v>1082</v>
       </c>
       <c r="J121" t="s">
         <v>290</v>
@@ -6811,8 +6814,8 @@
       <c r="G122" t="s">
         <v>68</v>
       </c>
-      <c r="I122" t="b">
-        <v>1</v>
+      <c r="I122" t="s">
+        <v>1082</v>
       </c>
       <c r="J122" t="s">
         <v>292</v>
@@ -6837,8 +6840,8 @@
       <c r="G123" t="s">
         <v>71</v>
       </c>
-      <c r="I123" t="b">
-        <v>1</v>
+      <c r="I123" t="s">
+        <v>1082</v>
       </c>
       <c r="J123" t="s">
         <v>294</v>
@@ -6863,8 +6866,8 @@
       <c r="G124" t="s">
         <v>74</v>
       </c>
-      <c r="I124" t="b">
-        <v>1</v>
+      <c r="I124" t="s">
+        <v>1082</v>
       </c>
       <c r="J124" t="s">
         <v>296</v>
@@ -6889,8 +6892,8 @@
       <c r="G125" t="s">
         <v>156</v>
       </c>
-      <c r="I125" t="b">
-        <v>1</v>
+      <c r="I125" t="s">
+        <v>1082</v>
       </c>
       <c r="J125" t="s">
         <v>298</v>
@@ -6915,8 +6918,8 @@
       <c r="G126" t="s">
         <v>77</v>
       </c>
-      <c r="I126" t="b">
-        <v>1</v>
+      <c r="I126" t="s">
+        <v>1082</v>
       </c>
       <c r="J126" t="s">
         <v>300</v>
@@ -6941,8 +6944,8 @@
       <c r="G127" t="s">
         <v>80</v>
       </c>
-      <c r="I127" t="b">
-        <v>1</v>
+      <c r="I127" t="s">
+        <v>1082</v>
       </c>
       <c r="J127" t="s">
         <v>302</v>
@@ -6967,8 +6970,8 @@
       <c r="G128" t="s">
         <v>83</v>
       </c>
-      <c r="I128" t="b">
-        <v>1</v>
+      <c r="I128" t="s">
+        <v>1082</v>
       </c>
       <c r="J128" t="s">
         <v>304</v>
@@ -6993,8 +6996,8 @@
       <c r="G129" t="s">
         <v>86</v>
       </c>
-      <c r="I129" t="b">
-        <v>1</v>
+      <c r="I129" t="s">
+        <v>1082</v>
       </c>
       <c r="J129" t="s">
         <v>306</v>
@@ -7019,8 +7022,8 @@
       <c r="G130" t="s">
         <v>89</v>
       </c>
-      <c r="I130" t="b">
-        <v>1</v>
+      <c r="I130" t="s">
+        <v>1082</v>
       </c>
       <c r="J130" t="s">
         <v>308</v>
@@ -7045,8 +7048,8 @@
       <c r="G131" t="s">
         <v>92</v>
       </c>
-      <c r="I131" t="b">
-        <v>1</v>
+      <c r="I131" t="s">
+        <v>1082</v>
       </c>
       <c r="J131" t="s">
         <v>310</v>
@@ -7071,8 +7074,8 @@
       <c r="G132" t="s">
         <v>95</v>
       </c>
-      <c r="I132" t="b">
-        <v>1</v>
+      <c r="I132" t="s">
+        <v>1082</v>
       </c>
       <c r="J132" t="s">
         <v>312</v>
@@ -7097,8 +7100,8 @@
       <c r="G133" t="s">
         <v>98</v>
       </c>
-      <c r="I133" t="b">
-        <v>1</v>
+      <c r="I133" t="s">
+        <v>1082</v>
       </c>
       <c r="J133" t="s">
         <v>314</v>
@@ -7123,8 +7126,8 @@
       <c r="G134" t="s">
         <v>101</v>
       </c>
-      <c r="I134" t="b">
-        <v>1</v>
+      <c r="I134" t="s">
+        <v>1082</v>
       </c>
       <c r="J134" t="s">
         <v>316</v>
@@ -7149,8 +7152,8 @@
       <c r="G135" t="s">
         <v>104</v>
       </c>
-      <c r="I135" t="b">
-        <v>1</v>
+      <c r="I135" t="s">
+        <v>1082</v>
       </c>
       <c r="J135" t="s">
         <v>318</v>
@@ -7175,8 +7178,8 @@
       <c r="G136" t="s">
         <v>108</v>
       </c>
-      <c r="I136" t="b">
-        <v>1</v>
+      <c r="I136" t="s">
+        <v>1082</v>
       </c>
       <c r="J136" t="s">
         <v>321</v>
@@ -7201,8 +7204,8 @@
       <c r="G137" t="s">
         <v>14</v>
       </c>
-      <c r="I137" t="b">
-        <v>1</v>
+      <c r="I137" t="s">
+        <v>1082</v>
       </c>
       <c r="J137" t="s">
         <v>323</v>
@@ -7227,8 +7230,8 @@
       <c r="G138" t="s">
         <v>17</v>
       </c>
-      <c r="I138" t="b">
-        <v>1</v>
+      <c r="I138" t="s">
+        <v>1082</v>
       </c>
       <c r="J138" t="s">
         <v>325</v>
@@ -7253,8 +7256,8 @@
       <c r="G139" t="s">
         <v>20</v>
       </c>
-      <c r="I139" t="b">
-        <v>1</v>
+      <c r="I139" t="s">
+        <v>1082</v>
       </c>
       <c r="J139" t="s">
         <v>327</v>
@@ -7279,8 +7282,8 @@
       <c r="G140" t="s">
         <v>23</v>
       </c>
-      <c r="I140" t="b">
-        <v>1</v>
+      <c r="I140" t="s">
+        <v>1082</v>
       </c>
       <c r="J140" t="s">
         <v>329</v>
@@ -7305,8 +7308,8 @@
       <c r="G141" t="s">
         <v>119</v>
       </c>
-      <c r="I141" t="b">
-        <v>1</v>
+      <c r="I141" t="s">
+        <v>1082</v>
       </c>
       <c r="J141" t="s">
         <v>331</v>
@@ -7331,8 +7334,8 @@
       <c r="G142" t="s">
         <v>26</v>
       </c>
-      <c r="I142" t="b">
-        <v>1</v>
+      <c r="I142" t="s">
+        <v>1082</v>
       </c>
       <c r="J142" t="s">
         <v>333</v>
@@ -7357,8 +7360,8 @@
       <c r="G143" t="s">
         <v>29</v>
       </c>
-      <c r="I143" t="b">
-        <v>1</v>
+      <c r="I143" t="s">
+        <v>1082</v>
       </c>
       <c r="J143" t="s">
         <v>335</v>
@@ -7383,8 +7386,8 @@
       <c r="G144" t="s">
         <v>32</v>
       </c>
-      <c r="I144" t="b">
-        <v>1</v>
+      <c r="I144" t="s">
+        <v>1082</v>
       </c>
       <c r="J144" t="s">
         <v>337</v>
@@ -7409,8 +7412,8 @@
       <c r="G145" t="s">
         <v>35</v>
       </c>
-      <c r="I145" t="b">
-        <v>1</v>
+      <c r="I145" t="s">
+        <v>1082</v>
       </c>
       <c r="J145" t="s">
         <v>339</v>
@@ -7435,8 +7438,8 @@
       <c r="G146" t="s">
         <v>38</v>
       </c>
-      <c r="I146" t="b">
-        <v>1</v>
+      <c r="I146" t="s">
+        <v>1082</v>
       </c>
       <c r="J146" t="s">
         <v>341</v>
@@ -7461,8 +7464,8 @@
       <c r="G147" t="s">
         <v>41</v>
       </c>
-      <c r="I147" t="b">
-        <v>1</v>
+      <c r="I147" t="s">
+        <v>1082</v>
       </c>
       <c r="J147" t="s">
         <v>343</v>
@@ -7487,8 +7490,8 @@
       <c r="G148" t="s">
         <v>44</v>
       </c>
-      <c r="I148" t="b">
-        <v>1</v>
+      <c r="I148" t="s">
+        <v>1082</v>
       </c>
       <c r="J148" t="s">
         <v>345</v>
@@ -7513,8 +7516,8 @@
       <c r="G149" t="s">
         <v>275</v>
       </c>
-      <c r="I149" t="b">
-        <v>1</v>
+      <c r="I149" t="s">
+        <v>1082</v>
       </c>
       <c r="J149" t="s">
         <v>347</v>
@@ -7539,8 +7542,8 @@
       <c r="G150" t="s">
         <v>47</v>
       </c>
-      <c r="I150" t="b">
-        <v>1</v>
+      <c r="I150" t="s">
+        <v>1082</v>
       </c>
       <c r="J150" t="s">
         <v>349</v>
@@ -7565,8 +7568,8 @@
       <c r="G151" t="s">
         <v>50</v>
       </c>
-      <c r="I151" t="b">
-        <v>1</v>
+      <c r="I151" t="s">
+        <v>1082</v>
       </c>
       <c r="J151" t="s">
         <v>351</v>
@@ -7591,8 +7594,8 @@
       <c r="G152" t="s">
         <v>53</v>
       </c>
-      <c r="I152" t="b">
-        <v>1</v>
+      <c r="I152" t="s">
+        <v>1082</v>
       </c>
       <c r="J152" t="s">
         <v>353</v>
@@ -7617,8 +7620,8 @@
       <c r="G153" t="s">
         <v>56</v>
       </c>
-      <c r="I153" t="b">
-        <v>1</v>
+      <c r="I153" t="s">
+        <v>1082</v>
       </c>
       <c r="J153" t="s">
         <v>355</v>
@@ -7643,8 +7646,8 @@
       <c r="G154" t="s">
         <v>59</v>
       </c>
-      <c r="I154" t="b">
-        <v>1</v>
+      <c r="I154" t="s">
+        <v>1082</v>
       </c>
       <c r="J154" t="s">
         <v>357</v>
@@ -7669,8 +7672,8 @@
       <c r="G155" t="s">
         <v>62</v>
       </c>
-      <c r="I155" t="b">
-        <v>1</v>
+      <c r="I155" t="s">
+        <v>1082</v>
       </c>
       <c r="J155" t="s">
         <v>359</v>
@@ -7695,8 +7698,8 @@
       <c r="G156" t="s">
         <v>65</v>
       </c>
-      <c r="I156" t="b">
-        <v>1</v>
+      <c r="I156" t="s">
+        <v>1082</v>
       </c>
       <c r="J156" t="s">
         <v>361</v>
@@ -7721,8 +7724,8 @@
       <c r="G157" t="s">
         <v>68</v>
       </c>
-      <c r="I157" t="b">
-        <v>1</v>
+      <c r="I157" t="s">
+        <v>1082</v>
       </c>
       <c r="J157" t="s">
         <v>363</v>
@@ -7747,8 +7750,8 @@
       <c r="G158" t="s">
         <v>71</v>
       </c>
-      <c r="I158" t="b">
-        <v>1</v>
+      <c r="I158" t="s">
+        <v>1082</v>
       </c>
       <c r="J158" t="s">
         <v>365</v>
@@ -7773,8 +7776,8 @@
       <c r="G159" t="s">
         <v>74</v>
       </c>
-      <c r="I159" t="b">
-        <v>1</v>
+      <c r="I159" t="s">
+        <v>1082</v>
       </c>
       <c r="J159" t="s">
         <v>367</v>
@@ -7799,8 +7802,8 @@
       <c r="G160" t="s">
         <v>156</v>
       </c>
-      <c r="I160" t="b">
-        <v>1</v>
+      <c r="I160" t="s">
+        <v>1082</v>
       </c>
       <c r="J160" t="s">
         <v>369</v>
@@ -7825,8 +7828,8 @@
       <c r="G161" t="s">
         <v>77</v>
       </c>
-      <c r="I161" t="b">
-        <v>1</v>
+      <c r="I161" t="s">
+        <v>1082</v>
       </c>
       <c r="J161" t="s">
         <v>371</v>
@@ -7851,8 +7854,8 @@
       <c r="G162" t="s">
         <v>80</v>
       </c>
-      <c r="I162" t="b">
-        <v>1</v>
+      <c r="I162" t="s">
+        <v>1082</v>
       </c>
       <c r="J162" t="s">
         <v>373</v>
@@ -7877,8 +7880,8 @@
       <c r="G163" t="s">
         <v>83</v>
       </c>
-      <c r="I163" t="b">
-        <v>1</v>
+      <c r="I163" t="s">
+        <v>1082</v>
       </c>
       <c r="J163" t="s">
         <v>375</v>
@@ -7903,8 +7906,8 @@
       <c r="G164" t="s">
         <v>86</v>
       </c>
-      <c r="I164" t="b">
-        <v>1</v>
+      <c r="I164" t="s">
+        <v>1082</v>
       </c>
       <c r="J164" t="s">
         <v>377</v>
@@ -7929,8 +7932,8 @@
       <c r="G165" t="s">
         <v>89</v>
       </c>
-      <c r="I165" t="b">
-        <v>1</v>
+      <c r="I165" t="s">
+        <v>1082</v>
       </c>
       <c r="J165" t="s">
         <v>379</v>
@@ -7955,8 +7958,8 @@
       <c r="G166" t="s">
         <v>92</v>
       </c>
-      <c r="I166" t="b">
-        <v>1</v>
+      <c r="I166" t="s">
+        <v>1082</v>
       </c>
       <c r="J166" t="s">
         <v>381</v>
@@ -7981,8 +7984,8 @@
       <c r="G167" t="s">
         <v>95</v>
       </c>
-      <c r="I167" t="b">
-        <v>1</v>
+      <c r="I167" t="s">
+        <v>1082</v>
       </c>
       <c r="J167" t="s">
         <v>383</v>
@@ -8007,8 +8010,8 @@
       <c r="G168" t="s">
         <v>98</v>
       </c>
-      <c r="I168" t="b">
-        <v>1</v>
+      <c r="I168" t="s">
+        <v>1082</v>
       </c>
       <c r="J168" t="s">
         <v>385</v>
@@ -8033,8 +8036,8 @@
       <c r="G169" t="s">
         <v>101</v>
       </c>
-      <c r="I169" t="b">
-        <v>1</v>
+      <c r="I169" t="s">
+        <v>1082</v>
       </c>
       <c r="J169" t="s">
         <v>387</v>
@@ -8059,8 +8062,8 @@
       <c r="G170" t="s">
         <v>104</v>
       </c>
-      <c r="I170" t="b">
-        <v>1</v>
+      <c r="I170" t="s">
+        <v>1082</v>
       </c>
       <c r="J170" t="s">
         <v>389</v>
@@ -8085,8 +8088,8 @@
       <c r="G171" t="s">
         <v>29</v>
       </c>
-      <c r="I171" t="b">
-        <v>1</v>
+      <c r="I171" t="s">
+        <v>1082</v>
       </c>
       <c r="J171" t="s">
         <v>391</v>
@@ -8111,8 +8114,8 @@
       <c r="G172" t="s">
         <v>156</v>
       </c>
-      <c r="I172" t="b">
-        <v>1</v>
+      <c r="I172" t="s">
+        <v>1082</v>
       </c>
       <c r="J172" t="s">
         <v>393</v>
@@ -8137,8 +8140,8 @@
       <c r="G173" t="s">
         <v>108</v>
       </c>
-      <c r="I173" t="b">
-        <v>1</v>
+      <c r="I173" t="s">
+        <v>1082</v>
       </c>
       <c r="J173" t="s">
         <v>395</v>
@@ -8163,8 +8166,8 @@
       <c r="G174" t="s">
         <v>38</v>
       </c>
-      <c r="I174" t="b">
-        <v>1</v>
+      <c r="I174" t="s">
+        <v>1082</v>
       </c>
       <c r="J174" t="s">
         <v>397</v>
@@ -8189,8 +8192,8 @@
       <c r="G175" t="s">
         <v>35</v>
       </c>
-      <c r="I175" t="b">
-        <v>1</v>
+      <c r="I175" t="s">
+        <v>1082</v>
       </c>
       <c r="J175" t="s">
         <v>399</v>
@@ -8218,8 +8221,8 @@
       <c r="H176" t="s">
         <v>44</v>
       </c>
-      <c r="I176" t="b">
-        <v>1</v>
+      <c r="I176" t="s">
+        <v>1082</v>
       </c>
       <c r="J176" t="s">
         <v>402</v>
@@ -8247,8 +8250,8 @@
       <c r="H177" t="s">
         <v>44</v>
       </c>
-      <c r="I177" t="b">
-        <v>1</v>
+      <c r="I177" t="s">
+        <v>1082</v>
       </c>
       <c r="J177" t="s">
         <v>404</v>
@@ -8276,8 +8279,8 @@
       <c r="H178" t="s">
         <v>14</v>
       </c>
-      <c r="I178" t="b">
-        <v>1</v>
+      <c r="I178" t="s">
+        <v>1082</v>
       </c>
       <c r="J178" t="s">
         <v>407</v>
@@ -8305,8 +8308,8 @@
       <c r="H179" t="s">
         <v>14</v>
       </c>
-      <c r="I179" t="b">
-        <v>1</v>
+      <c r="I179" t="s">
+        <v>1082</v>
       </c>
       <c r="J179" t="s">
         <v>409</v>
@@ -8334,8 +8337,8 @@
       <c r="H180" t="s">
         <v>14</v>
       </c>
-      <c r="I180" t="b">
-        <v>1</v>
+      <c r="I180" t="s">
+        <v>1082</v>
       </c>
       <c r="J180" t="s">
         <v>412</v>
@@ -8363,8 +8366,8 @@
       <c r="H181" t="s">
         <v>14</v>
       </c>
-      <c r="I181" t="b">
-        <v>1</v>
+      <c r="I181" t="s">
+        <v>1082</v>
       </c>
       <c r="J181" t="s">
         <v>414</v>
@@ -8392,8 +8395,8 @@
       <c r="H182" t="s">
         <v>14</v>
       </c>
-      <c r="I182" t="b">
-        <v>1</v>
+      <c r="I182" t="s">
+        <v>1082</v>
       </c>
       <c r="J182" t="s">
         <v>417</v>
@@ -8421,8 +8424,8 @@
       <c r="H183" t="s">
         <v>14</v>
       </c>
-      <c r="I183" t="b">
-        <v>1</v>
+      <c r="I183" t="s">
+        <v>1082</v>
       </c>
       <c r="J183" t="s">
         <v>419</v>
@@ -8450,8 +8453,8 @@
       <c r="H184" t="s">
         <v>14</v>
       </c>
-      <c r="I184" t="b">
-        <v>1</v>
+      <c r="I184" t="s">
+        <v>1082</v>
       </c>
       <c r="J184" t="s">
         <v>422</v>
@@ -8479,8 +8482,8 @@
       <c r="H185" t="s">
         <v>14</v>
       </c>
-      <c r="I185" t="b">
-        <v>1</v>
+      <c r="I185" t="s">
+        <v>1082</v>
       </c>
       <c r="J185" t="s">
         <v>424</v>
@@ -8508,8 +8511,8 @@
       <c r="H186" t="s">
         <v>44</v>
       </c>
-      <c r="I186" t="b">
-        <v>1</v>
+      <c r="I186" t="s">
+        <v>1082</v>
       </c>
       <c r="J186" t="s">
         <v>427</v>
@@ -8537,8 +8540,8 @@
       <c r="H187" t="s">
         <v>44</v>
       </c>
-      <c r="I187" t="b">
-        <v>1</v>
+      <c r="I187" t="s">
+        <v>1082</v>
       </c>
       <c r="J187" t="s">
         <v>429</v>
@@ -8566,8 +8569,8 @@
       <c r="H188" t="s">
         <v>74</v>
       </c>
-      <c r="I188" t="b">
-        <v>1</v>
+      <c r="I188" t="s">
+        <v>1082</v>
       </c>
       <c r="J188" t="s">
         <v>432</v>
@@ -8595,8 +8598,8 @@
       <c r="H189" t="s">
         <v>74</v>
       </c>
-      <c r="I189" t="b">
-        <v>1</v>
+      <c r="I189" t="s">
+        <v>1082</v>
       </c>
       <c r="J189" t="s">
         <v>434</v>
@@ -8624,8 +8627,8 @@
       <c r="H190" t="s">
         <v>44</v>
       </c>
-      <c r="I190" t="b">
-        <v>1</v>
+      <c r="I190" t="s">
+        <v>1082</v>
       </c>
       <c r="J190" t="s">
         <v>437</v>
@@ -8653,8 +8656,8 @@
       <c r="H191" t="s">
         <v>44</v>
       </c>
-      <c r="I191" t="b">
-        <v>1</v>
+      <c r="I191" t="s">
+        <v>1082</v>
       </c>
       <c r="J191" t="s">
         <v>439</v>
@@ -8682,8 +8685,8 @@
       <c r="H192" t="s">
         <v>14</v>
       </c>
-      <c r="I192" t="b">
-        <v>1</v>
+      <c r="I192" t="s">
+        <v>1082</v>
       </c>
       <c r="J192" t="s">
         <v>442</v>
@@ -8711,8 +8714,8 @@
       <c r="H193" t="s">
         <v>14</v>
       </c>
-      <c r="I193" t="b">
-        <v>1</v>
+      <c r="I193" t="s">
+        <v>1082</v>
       </c>
       <c r="J193" t="s">
         <v>444</v>
@@ -8740,8 +8743,8 @@
       <c r="H194" t="s">
         <v>14</v>
       </c>
-      <c r="I194" t="b">
-        <v>1</v>
+      <c r="I194" t="s">
+        <v>1082</v>
       </c>
       <c r="J194" t="s">
         <v>447</v>
@@ -8769,8 +8772,8 @@
       <c r="H195" t="s">
         <v>14</v>
       </c>
-      <c r="I195" t="b">
-        <v>1</v>
+      <c r="I195" t="s">
+        <v>1082</v>
       </c>
       <c r="J195" t="s">
         <v>449</v>
@@ -8798,8 +8801,8 @@
       <c r="H196" t="s">
         <v>44</v>
       </c>
-      <c r="I196" t="b">
-        <v>1</v>
+      <c r="I196" t="s">
+        <v>1082</v>
       </c>
       <c r="J196" t="s">
         <v>452</v>
@@ -8827,8 +8830,8 @@
       <c r="H197" t="s">
         <v>44</v>
       </c>
-      <c r="I197" t="b">
-        <v>1</v>
+      <c r="I197" t="s">
+        <v>1082</v>
       </c>
       <c r="J197" t="s">
         <v>454</v>
@@ -8856,8 +8859,8 @@
       <c r="H198" t="s">
         <v>44</v>
       </c>
-      <c r="I198" t="b">
-        <v>1</v>
+      <c r="I198" t="s">
+        <v>1082</v>
       </c>
       <c r="J198" t="s">
         <v>456</v>
@@ -8885,8 +8888,8 @@
       <c r="H199" t="s">
         <v>44</v>
       </c>
-      <c r="I199" t="b">
-        <v>1</v>
+      <c r="I199" t="s">
+        <v>1082</v>
       </c>
       <c r="J199" t="s">
         <v>458</v>
@@ -8914,8 +8917,8 @@
       <c r="H200" t="s">
         <v>44</v>
       </c>
-      <c r="I200" t="b">
-        <v>1</v>
+      <c r="I200" t="s">
+        <v>1082</v>
       </c>
       <c r="J200" t="s">
         <v>461</v>
@@ -8943,8 +8946,8 @@
       <c r="H201" t="s">
         <v>44</v>
       </c>
-      <c r="I201" t="b">
-        <v>1</v>
+      <c r="I201" t="s">
+        <v>1082</v>
       </c>
       <c r="J201" t="s">
         <v>464</v>
@@ -8972,8 +8975,8 @@
       <c r="H202" t="s">
         <v>68</v>
       </c>
-      <c r="I202" t="b">
-        <v>1</v>
+      <c r="I202" t="s">
+        <v>1082</v>
       </c>
       <c r="J202" t="s">
         <v>467</v>
@@ -9001,8 +9004,8 @@
       <c r="H203" t="s">
         <v>14</v>
       </c>
-      <c r="I203" t="b">
-        <v>1</v>
+      <c r="I203" t="s">
+        <v>1082</v>
       </c>
       <c r="J203" t="s">
         <v>470</v>
@@ -9030,8 +9033,8 @@
       <c r="H204" t="s">
         <v>44</v>
       </c>
-      <c r="I204" t="b">
-        <v>1</v>
+      <c r="I204" t="s">
+        <v>1082</v>
       </c>
       <c r="J204" t="s">
         <v>473</v>
@@ -9059,8 +9062,8 @@
       <c r="H205" t="s">
         <v>68</v>
       </c>
-      <c r="I205" t="b">
-        <v>1</v>
+      <c r="I205" t="s">
+        <v>1082</v>
       </c>
       <c r="J205" t="s">
         <v>476</v>
@@ -9088,8 +9091,8 @@
       <c r="H206" t="s">
         <v>14</v>
       </c>
-      <c r="I206" t="b">
-        <v>1</v>
+      <c r="I206" t="s">
+        <v>1082</v>
       </c>
       <c r="J206" t="s">
         <v>479</v>
@@ -9117,8 +9120,8 @@
       <c r="H207" t="s">
         <v>44</v>
       </c>
-      <c r="I207" t="b">
-        <v>1</v>
+      <c r="I207" t="s">
+        <v>1082</v>
       </c>
       <c r="J207" t="s">
         <v>482</v>
@@ -9146,8 +9149,8 @@
       <c r="H208" t="s">
         <v>14</v>
       </c>
-      <c r="I208" t="b">
-        <v>1</v>
+      <c r="I208" t="s">
+        <v>1082</v>
       </c>
       <c r="J208" t="s">
         <v>485</v>
@@ -9175,8 +9178,8 @@
       <c r="H209" t="s">
         <v>44</v>
       </c>
-      <c r="I209" t="b">
-        <v>1</v>
+      <c r="I209" t="s">
+        <v>1082</v>
       </c>
       <c r="J209" t="s">
         <v>488</v>
@@ -9204,8 +9207,8 @@
       <c r="H210" t="s">
         <v>68</v>
       </c>
-      <c r="I210" t="b">
-        <v>1</v>
+      <c r="I210" t="s">
+        <v>1082</v>
       </c>
       <c r="J210" t="s">
         <v>491</v>
@@ -9233,8 +9236,8 @@
       <c r="H211" t="s">
         <v>14</v>
       </c>
-      <c r="I211" t="b">
-        <v>1</v>
+      <c r="I211" t="s">
+        <v>1082</v>
       </c>
       <c r="J211" t="s">
         <v>494</v>
@@ -9262,8 +9265,8 @@
       <c r="H212" t="s">
         <v>68</v>
       </c>
-      <c r="I212" t="b">
-        <v>1</v>
+      <c r="I212" t="s">
+        <v>1082</v>
       </c>
       <c r="J212" t="s">
         <v>497</v>
@@ -9291,8 +9294,8 @@
       <c r="H213" t="s">
         <v>14</v>
       </c>
-      <c r="I213" t="b">
-        <v>1</v>
+      <c r="I213" t="s">
+        <v>1082</v>
       </c>
       <c r="J213" t="s">
         <v>500</v>
@@ -9320,8 +9323,8 @@
       <c r="H214" t="s">
         <v>68</v>
       </c>
-      <c r="I214" t="b">
-        <v>1</v>
+      <c r="I214" t="s">
+        <v>1082</v>
       </c>
       <c r="J214" t="s">
         <v>503</v>
@@ -9349,8 +9352,8 @@
       <c r="H215" t="s">
         <v>44</v>
       </c>
-      <c r="I215" t="b">
-        <v>1</v>
+      <c r="I215" t="s">
+        <v>1082</v>
       </c>
       <c r="J215" t="s">
         <v>505</v>
@@ -9378,8 +9381,8 @@
       <c r="H216" t="s">
         <v>14</v>
       </c>
-      <c r="I216" t="b">
-        <v>1</v>
+      <c r="I216" t="s">
+        <v>1082</v>
       </c>
       <c r="J216" t="s">
         <v>508</v>
@@ -9407,8 +9410,8 @@
       <c r="H217" t="s">
         <v>44</v>
       </c>
-      <c r="I217" t="b">
-        <v>1</v>
+      <c r="I217" t="s">
+        <v>1082</v>
       </c>
       <c r="J217" t="s">
         <v>511</v>
@@ -9436,8 +9439,8 @@
       <c r="H218" t="s">
         <v>68</v>
       </c>
-      <c r="I218" t="b">
-        <v>1</v>
+      <c r="I218" t="s">
+        <v>1082</v>
       </c>
       <c r="J218" t="s">
         <v>514</v>
@@ -9465,8 +9468,8 @@
       <c r="H219" t="s">
         <v>14</v>
       </c>
-      <c r="I219" t="b">
-        <v>1</v>
+      <c r="I219" t="s">
+        <v>1082</v>
       </c>
       <c r="J219" t="s">
         <v>517</v>
@@ -9494,8 +9497,8 @@
       <c r="H220" t="s">
         <v>44</v>
       </c>
-      <c r="I220" t="b">
-        <v>1</v>
+      <c r="I220" t="s">
+        <v>1082</v>
       </c>
       <c r="J220" t="s">
         <v>520</v>
@@ -9523,8 +9526,8 @@
       <c r="H221" t="s">
         <v>68</v>
       </c>
-      <c r="I221" t="b">
-        <v>1</v>
+      <c r="I221" t="s">
+        <v>1082</v>
       </c>
       <c r="J221" t="s">
         <v>523</v>
@@ -9552,8 +9555,8 @@
       <c r="H222" t="s">
         <v>14</v>
       </c>
-      <c r="I222" t="b">
-        <v>1</v>
+      <c r="I222" t="s">
+        <v>1082</v>
       </c>
       <c r="J222" t="s">
         <v>526</v>
@@ -9581,8 +9584,8 @@
       <c r="H223" t="s">
         <v>68</v>
       </c>
-      <c r="I223" t="b">
-        <v>1</v>
+      <c r="I223" t="s">
+        <v>1082</v>
       </c>
       <c r="J223" t="s">
         <v>529</v>
@@ -9610,8 +9613,8 @@
       <c r="H224" t="s">
         <v>44</v>
       </c>
-      <c r="I224" t="b">
-        <v>1</v>
+      <c r="I224" t="s">
+        <v>1082</v>
       </c>
       <c r="J224" t="s">
         <v>532</v>
@@ -9639,8 +9642,8 @@
       <c r="H225" t="s">
         <v>44</v>
       </c>
-      <c r="I225" t="b">
-        <v>1</v>
+      <c r="I225" t="s">
+        <v>1082</v>
       </c>
       <c r="J225" t="s">
         <v>535</v>
@@ -9668,8 +9671,8 @@
       <c r="H226" t="s">
         <v>68</v>
       </c>
-      <c r="I226" t="b">
-        <v>1</v>
+      <c r="I226" t="s">
+        <v>1082</v>
       </c>
       <c r="J226" t="s">
         <v>538</v>
@@ -9697,8 +9700,8 @@
       <c r="H227" t="s">
         <v>14</v>
       </c>
-      <c r="I227" t="b">
-        <v>1</v>
+      <c r="I227" t="s">
+        <v>1082</v>
       </c>
       <c r="J227" t="s">
         <v>541</v>
@@ -9726,8 +9729,8 @@
       <c r="H228" t="s">
         <v>44</v>
       </c>
-      <c r="I228" t="b">
-        <v>1</v>
+      <c r="I228" t="s">
+        <v>1082</v>
       </c>
       <c r="J228" t="s">
         <v>544</v>
@@ -9755,8 +9758,8 @@
       <c r="H229" t="s">
         <v>68</v>
       </c>
-      <c r="I229" t="b">
-        <v>1</v>
+      <c r="I229" t="s">
+        <v>1082</v>
       </c>
       <c r="J229" t="s">
         <v>547</v>
@@ -9784,8 +9787,8 @@
       <c r="H230" t="s">
         <v>14</v>
       </c>
-      <c r="I230" t="b">
-        <v>1</v>
+      <c r="I230" t="s">
+        <v>1082</v>
       </c>
       <c r="J230" t="s">
         <v>550</v>
@@ -9813,8 +9816,8 @@
       <c r="H231" t="s">
         <v>68</v>
       </c>
-      <c r="I231" t="b">
-        <v>1</v>
+      <c r="I231" t="s">
+        <v>1082</v>
       </c>
       <c r="J231" t="s">
         <v>553</v>
@@ -9842,8 +9845,8 @@
       <c r="H232" t="s">
         <v>68</v>
       </c>
-      <c r="I232" t="b">
-        <v>1</v>
+      <c r="I232" t="s">
+        <v>1082</v>
       </c>
       <c r="J232" t="s">
         <v>556</v>
@@ -9871,8 +9874,8 @@
       <c r="H233" t="s">
         <v>14</v>
       </c>
-      <c r="I233" t="b">
-        <v>1</v>
+      <c r="I233" t="s">
+        <v>1082</v>
       </c>
       <c r="J233" t="s">
         <v>559</v>
@@ -9900,8 +9903,8 @@
       <c r="H234" t="s">
         <v>44</v>
       </c>
-      <c r="I234" t="b">
-        <v>1</v>
+      <c r="I234" t="s">
+        <v>1082</v>
       </c>
       <c r="J234" t="s">
         <v>562</v>
@@ -9929,8 +9932,8 @@
       <c r="H235" t="s">
         <v>14</v>
       </c>
-      <c r="I235" t="b">
-        <v>1</v>
+      <c r="I235" t="s">
+        <v>1082</v>
       </c>
       <c r="J235" t="s">
         <v>565</v>
@@ -9958,8 +9961,8 @@
       <c r="H236" t="s">
         <v>44</v>
       </c>
-      <c r="I236" t="b">
-        <v>1</v>
+      <c r="I236" t="s">
+        <v>1082</v>
       </c>
       <c r="J236" t="s">
         <v>568</v>
@@ -9987,8 +9990,8 @@
       <c r="H237" t="s">
         <v>68</v>
       </c>
-      <c r="I237" t="b">
-        <v>1</v>
+      <c r="I237" t="s">
+        <v>1082</v>
       </c>
       <c r="J237" t="s">
         <v>571</v>
@@ -10016,8 +10019,8 @@
       <c r="H238" t="s">
         <v>14</v>
       </c>
-      <c r="I238" t="b">
-        <v>1</v>
+      <c r="I238" t="s">
+        <v>1082</v>
       </c>
       <c r="J238" t="s">
         <v>574</v>
@@ -10045,8 +10048,8 @@
       <c r="H239" t="s">
         <v>44</v>
       </c>
-      <c r="I239" t="b">
-        <v>1</v>
+      <c r="I239" t="s">
+        <v>1082</v>
       </c>
       <c r="J239" t="s">
         <v>577</v>
@@ -10074,8 +10077,8 @@
       <c r="H240" t="s">
         <v>68</v>
       </c>
-      <c r="I240" t="b">
-        <v>1</v>
+      <c r="I240" t="s">
+        <v>1082</v>
       </c>
       <c r="J240" t="s">
         <v>580</v>
@@ -10103,8 +10106,8 @@
       <c r="H241" t="s">
         <v>44</v>
       </c>
-      <c r="I241" t="b">
-        <v>1</v>
+      <c r="I241" t="s">
+        <v>1082</v>
       </c>
       <c r="J241" t="s">
         <v>583</v>
@@ -10132,8 +10135,8 @@
       <c r="H242" t="s">
         <v>68</v>
       </c>
-      <c r="I242" t="b">
-        <v>1</v>
+      <c r="I242" t="s">
+        <v>1082</v>
       </c>
       <c r="J242" t="s">
         <v>586</v>
@@ -10161,8 +10164,8 @@
       <c r="H243" t="s">
         <v>14</v>
       </c>
-      <c r="I243" t="b">
-        <v>1</v>
+      <c r="I243" t="s">
+        <v>1082</v>
       </c>
       <c r="J243" t="s">
         <v>589</v>
@@ -10190,8 +10193,8 @@
       <c r="H244" t="s">
         <v>44</v>
       </c>
-      <c r="I244" t="b">
-        <v>1</v>
+      <c r="I244" t="s">
+        <v>1082</v>
       </c>
       <c r="J244" t="s">
         <v>592</v>
@@ -10219,8 +10222,8 @@
       <c r="H245" t="s">
         <v>14</v>
       </c>
-      <c r="I245" t="b">
-        <v>1</v>
+      <c r="I245" t="s">
+        <v>1082</v>
       </c>
       <c r="J245" t="s">
         <v>594</v>
@@ -10248,8 +10251,8 @@
       <c r="H246" t="s">
         <v>44</v>
       </c>
-      <c r="I246" t="b">
-        <v>1</v>
+      <c r="I246" t="s">
+        <v>1082</v>
       </c>
       <c r="J246" t="s">
         <v>597</v>
@@ -10277,8 +10280,8 @@
       <c r="H247" t="s">
         <v>68</v>
       </c>
-      <c r="I247" t="b">
-        <v>1</v>
+      <c r="I247" t="s">
+        <v>1082</v>
       </c>
       <c r="J247" t="s">
         <v>600</v>
@@ -10306,8 +10309,8 @@
       <c r="H248" t="s">
         <v>68</v>
       </c>
-      <c r="I248" t="b">
-        <v>1</v>
+      <c r="I248" t="s">
+        <v>1082</v>
       </c>
       <c r="J248" t="s">
         <v>603</v>
@@ -10335,8 +10338,8 @@
       <c r="H249" t="s">
         <v>14</v>
       </c>
-      <c r="I249" t="b">
-        <v>1</v>
+      <c r="I249" t="s">
+        <v>1082</v>
       </c>
       <c r="J249" t="s">
         <v>606</v>
@@ -10364,8 +10367,8 @@
       <c r="H250" t="s">
         <v>44</v>
       </c>
-      <c r="I250" t="b">
-        <v>1</v>
+      <c r="I250" t="s">
+        <v>1082</v>
       </c>
       <c r="J250" t="s">
         <v>609</v>
@@ -10393,8 +10396,8 @@
       <c r="H251" t="s">
         <v>68</v>
       </c>
-      <c r="I251" t="b">
-        <v>1</v>
+      <c r="I251" t="s">
+        <v>1082</v>
       </c>
       <c r="J251" t="s">
         <v>612</v>
@@ -10422,8 +10425,8 @@
       <c r="H252" t="s">
         <v>14</v>
       </c>
-      <c r="I252" t="b">
-        <v>1</v>
+      <c r="I252" t="s">
+        <v>1082</v>
       </c>
       <c r="J252" t="s">
         <v>615</v>
@@ -10451,8 +10454,8 @@
       <c r="H253" t="s">
         <v>68</v>
       </c>
-      <c r="I253" t="b">
-        <v>1</v>
+      <c r="I253" t="s">
+        <v>1082</v>
       </c>
       <c r="J253" t="s">
         <v>618</v>
@@ -10480,8 +10483,8 @@
       <c r="H254" t="s">
         <v>68</v>
       </c>
-      <c r="I254" t="b">
-        <v>1</v>
+      <c r="I254" t="s">
+        <v>1082</v>
       </c>
       <c r="J254" t="s">
         <v>621</v>
@@ -10509,8 +10512,8 @@
       <c r="H255" t="s">
         <v>14</v>
       </c>
-      <c r="I255" t="b">
-        <v>1</v>
+      <c r="I255" t="s">
+        <v>1082</v>
       </c>
       <c r="J255" t="s">
         <v>624</v>
@@ -10538,8 +10541,8 @@
       <c r="H256" t="s">
         <v>68</v>
       </c>
-      <c r="I256" t="b">
-        <v>1</v>
+      <c r="I256" t="s">
+        <v>1082</v>
       </c>
       <c r="J256" t="s">
         <v>627</v>
@@ -10567,8 +10570,8 @@
       <c r="H257" t="s">
         <v>14</v>
       </c>
-      <c r="I257" t="b">
-        <v>1</v>
+      <c r="I257" t="s">
+        <v>1082</v>
       </c>
       <c r="J257" t="s">
         <v>629</v>
@@ -10596,8 +10599,8 @@
       <c r="H258" t="s">
         <v>44</v>
       </c>
-      <c r="I258" t="b">
-        <v>1</v>
+      <c r="I258" t="s">
+        <v>1082</v>
       </c>
       <c r="J258" t="s">
         <v>632</v>
@@ -10625,8 +10628,8 @@
       <c r="H259" t="s">
         <v>68</v>
       </c>
-      <c r="I259" t="b">
-        <v>1</v>
+      <c r="I259" t="s">
+        <v>1082</v>
       </c>
       <c r="J259" t="s">
         <v>635</v>
@@ -10654,8 +10657,8 @@
       <c r="H260" t="s">
         <v>44</v>
       </c>
-      <c r="I260" t="b">
-        <v>1</v>
+      <c r="I260" t="s">
+        <v>1082</v>
       </c>
       <c r="J260" t="s">
         <v>638</v>
@@ -10683,8 +10686,8 @@
       <c r="H261" t="s">
         <v>68</v>
       </c>
-      <c r="I261" t="b">
-        <v>1</v>
+      <c r="I261" t="s">
+        <v>1082</v>
       </c>
       <c r="J261" t="s">
         <v>641</v>
@@ -10712,8 +10715,8 @@
       <c r="H262" t="s">
         <v>68</v>
       </c>
-      <c r="I262" t="b">
-        <v>1</v>
+      <c r="I262" t="s">
+        <v>1082</v>
       </c>
       <c r="J262" t="s">
         <v>644</v>
@@ -10741,8 +10744,8 @@
       <c r="H263" t="s">
         <v>14</v>
       </c>
-      <c r="I263" t="b">
-        <v>1</v>
+      <c r="I263" t="s">
+        <v>1082</v>
       </c>
       <c r="J263" t="s">
         <v>647</v>
@@ -10770,8 +10773,8 @@
       <c r="H264" t="s">
         <v>44</v>
       </c>
-      <c r="I264" t="b">
-        <v>1</v>
+      <c r="I264" t="s">
+        <v>1082</v>
       </c>
       <c r="J264" t="s">
         <v>649</v>
@@ -10799,8 +10802,8 @@
       <c r="H265" t="s">
         <v>14</v>
       </c>
-      <c r="I265" t="b">
-        <v>1</v>
+      <c r="I265" t="s">
+        <v>1082</v>
       </c>
       <c r="J265" t="s">
         <v>651</v>
@@ -10828,8 +10831,8 @@
       <c r="H266" t="s">
         <v>44</v>
       </c>
-      <c r="I266" t="b">
-        <v>1</v>
+      <c r="I266" t="s">
+        <v>1082</v>
       </c>
       <c r="J266" t="s">
         <v>653</v>
@@ -10857,8 +10860,8 @@
       <c r="H267" t="s">
         <v>14</v>
       </c>
-      <c r="I267" t="b">
-        <v>1</v>
+      <c r="I267" t="s">
+        <v>1082</v>
       </c>
       <c r="J267" t="s">
         <v>655</v>
@@ -10886,8 +10889,8 @@
       <c r="H268" t="s">
         <v>44</v>
       </c>
-      <c r="I268" t="b">
-        <v>1</v>
+      <c r="I268" t="s">
+        <v>1082</v>
       </c>
       <c r="J268" t="s">
         <v>657</v>
@@ -10915,8 +10918,8 @@
       <c r="H269" t="s">
         <v>14</v>
       </c>
-      <c r="I269" t="b">
-        <v>1</v>
+      <c r="I269" t="s">
+        <v>1082</v>
       </c>
       <c r="J269" t="s">
         <v>659</v>
@@ -10944,8 +10947,8 @@
       <c r="H270" t="s">
         <v>44</v>
       </c>
-      <c r="I270" t="b">
-        <v>1</v>
+      <c r="I270" t="s">
+        <v>1082</v>
       </c>
       <c r="J270" t="s">
         <v>662</v>
@@ -10973,8 +10976,8 @@
       <c r="H271" t="s">
         <v>14</v>
       </c>
-      <c r="I271" t="b">
-        <v>1</v>
+      <c r="I271" t="s">
+        <v>1082</v>
       </c>
       <c r="J271" t="s">
         <v>664</v>
@@ -11002,8 +11005,8 @@
       <c r="H272" t="s">
         <v>14</v>
       </c>
-      <c r="I272" t="b">
-        <v>1</v>
+      <c r="I272" t="s">
+        <v>1082</v>
       </c>
       <c r="J272" t="s">
         <v>666</v>
@@ -11031,8 +11034,8 @@
       <c r="H273" t="s">
         <v>44</v>
       </c>
-      <c r="I273" t="b">
-        <v>1</v>
+      <c r="I273" t="s">
+        <v>1082</v>
       </c>
       <c r="J273" t="s">
         <v>668</v>
@@ -11060,8 +11063,8 @@
       <c r="H274" t="s">
         <v>14</v>
       </c>
-      <c r="I274" t="b">
-        <v>1</v>
+      <c r="I274" t="s">
+        <v>1082</v>
       </c>
       <c r="J274" t="s">
         <v>670</v>
@@ -11089,8 +11092,8 @@
       <c r="H275" t="s">
         <v>14</v>
       </c>
-      <c r="I275" t="b">
-        <v>1</v>
+      <c r="I275" t="s">
+        <v>1082</v>
       </c>
       <c r="J275" t="s">
         <v>672</v>
@@ -11118,8 +11121,8 @@
       <c r="H276" t="s">
         <v>44</v>
       </c>
-      <c r="I276" t="b">
-        <v>1</v>
+      <c r="I276" t="s">
+        <v>1082</v>
       </c>
       <c r="J276" t="s">
         <v>674</v>
@@ -11147,8 +11150,8 @@
       <c r="H277" t="s">
         <v>14</v>
       </c>
-      <c r="I277" t="b">
-        <v>1</v>
+      <c r="I277" t="s">
+        <v>1082</v>
       </c>
       <c r="J277" t="s">
         <v>676</v>
@@ -11176,8 +11179,8 @@
       <c r="H278" t="s">
         <v>65</v>
       </c>
-      <c r="I278" t="b">
-        <v>1</v>
+      <c r="I278" t="s">
+        <v>1082</v>
       </c>
       <c r="J278" t="s">
         <v>679</v>
@@ -11205,8 +11208,8 @@
       <c r="H279" t="s">
         <v>68</v>
       </c>
-      <c r="I279" t="b">
-        <v>1</v>
+      <c r="I279" t="s">
+        <v>1082</v>
       </c>
       <c r="J279" t="s">
         <v>682</v>
@@ -11234,8 +11237,8 @@
       <c r="H280" t="s">
         <v>14</v>
       </c>
-      <c r="I280" t="b">
-        <v>1</v>
+      <c r="I280" t="s">
+        <v>1082</v>
       </c>
       <c r="J280" t="s">
         <v>685</v>
@@ -11263,8 +11266,8 @@
       <c r="H281" t="s">
         <v>14</v>
       </c>
-      <c r="I281" t="b">
-        <v>1</v>
+      <c r="I281" t="s">
+        <v>1082</v>
       </c>
       <c r="J281" t="s">
         <v>687</v>
@@ -11292,8 +11295,8 @@
       <c r="H282" t="s">
         <v>44</v>
       </c>
-      <c r="I282" t="b">
-        <v>1</v>
+      <c r="I282" t="s">
+        <v>1082</v>
       </c>
       <c r="J282" t="s">
         <v>690</v>
@@ -11321,8 +11324,8 @@
       <c r="H283" t="s">
         <v>14</v>
       </c>
-      <c r="I283" t="b">
-        <v>1</v>
+      <c r="I283" t="s">
+        <v>1082</v>
       </c>
       <c r="J283" t="s">
         <v>693</v>
@@ -11350,8 +11353,8 @@
       <c r="H284" t="s">
         <v>44</v>
       </c>
-      <c r="I284" t="b">
-        <v>1</v>
+      <c r="I284" t="s">
+        <v>1082</v>
       </c>
       <c r="J284" t="s">
         <v>696</v>
@@ -11379,8 +11382,8 @@
       <c r="H285" t="s">
         <v>14</v>
       </c>
-      <c r="I285" t="b">
-        <v>1</v>
+      <c r="I285" t="s">
+        <v>1082</v>
       </c>
       <c r="J285" t="s">
         <v>699</v>
@@ -11408,8 +11411,8 @@
       <c r="H286" t="s">
         <v>14</v>
       </c>
-      <c r="I286" t="b">
-        <v>1</v>
+      <c r="I286" t="s">
+        <v>1082</v>
       </c>
       <c r="J286" t="s">
         <v>701</v>
@@ -11437,8 +11440,8 @@
       <c r="H287" t="s">
         <v>44</v>
       </c>
-      <c r="I287" t="b">
-        <v>1</v>
+      <c r="I287" t="s">
+        <v>1082</v>
       </c>
       <c r="J287" t="s">
         <v>703</v>
@@ -11466,8 +11469,8 @@
       <c r="H288" t="s">
         <v>14</v>
       </c>
-      <c r="I288" t="b">
-        <v>1</v>
+      <c r="I288" t="s">
+        <v>1082</v>
       </c>
       <c r="J288" t="s">
         <v>706</v>
@@ -11495,8 +11498,8 @@
       <c r="H289" t="s">
         <v>14</v>
       </c>
-      <c r="I289" t="b">
-        <v>1</v>
+      <c r="I289" t="s">
+        <v>1082</v>
       </c>
       <c r="J289" t="s">
         <v>708</v>
@@ -11524,8 +11527,8 @@
       <c r="H290" t="s">
         <v>14</v>
       </c>
-      <c r="I290" t="b">
-        <v>1</v>
+      <c r="I290" t="s">
+        <v>1082</v>
       </c>
       <c r="J290" t="s">
         <v>710</v>
@@ -11553,8 +11556,8 @@
       <c r="H291" t="s">
         <v>44</v>
       </c>
-      <c r="I291" t="b">
-        <v>1</v>
+      <c r="I291" t="s">
+        <v>1082</v>
       </c>
       <c r="J291" t="s">
         <v>712</v>
@@ -11582,8 +11585,8 @@
       <c r="H292" t="s">
         <v>14</v>
       </c>
-      <c r="I292" t="b">
-        <v>1</v>
+      <c r="I292" t="s">
+        <v>1082</v>
       </c>
       <c r="J292" t="s">
         <v>714</v>
@@ -11611,8 +11614,8 @@
       <c r="H293" t="s">
         <v>14</v>
       </c>
-      <c r="I293" t="b">
-        <v>1</v>
+      <c r="I293" t="s">
+        <v>1082</v>
       </c>
       <c r="J293" t="s">
         <v>717</v>
@@ -11640,8 +11643,8 @@
       <c r="H294" t="s">
         <v>44</v>
       </c>
-      <c r="I294" t="b">
-        <v>1</v>
+      <c r="I294" t="s">
+        <v>1082</v>
       </c>
       <c r="J294" t="s">
         <v>719</v>
@@ -11669,8 +11672,8 @@
       <c r="H295" t="s">
         <v>14</v>
       </c>
-      <c r="I295" t="b">
-        <v>1</v>
+      <c r="I295" t="s">
+        <v>1082</v>
       </c>
       <c r="J295" t="s">
         <v>721</v>
@@ -11698,8 +11701,8 @@
       <c r="H296" t="s">
         <v>44</v>
       </c>
-      <c r="I296" t="b">
-        <v>1</v>
+      <c r="I296" t="s">
+        <v>1082</v>
       </c>
       <c r="J296" t="s">
         <v>723</v>
@@ -11727,8 +11730,8 @@
       <c r="H297" t="s">
         <v>44</v>
       </c>
-      <c r="I297" t="b">
-        <v>1</v>
+      <c r="I297" t="s">
+        <v>1082</v>
       </c>
       <c r="J297" t="s">
         <v>725</v>
@@ -11756,8 +11759,8 @@
       <c r="H298" t="s">
         <v>14</v>
       </c>
-      <c r="I298" t="b">
-        <v>1</v>
+      <c r="I298" t="s">
+        <v>1082</v>
       </c>
       <c r="J298" t="s">
         <v>728</v>
@@ -11785,8 +11788,8 @@
       <c r="H299" t="s">
         <v>44</v>
       </c>
-      <c r="I299" t="b">
-        <v>1</v>
+      <c r="I299" t="s">
+        <v>1082</v>
       </c>
       <c r="J299" t="s">
         <v>731</v>
@@ -11814,8 +11817,8 @@
       <c r="H300" t="s">
         <v>14</v>
       </c>
-      <c r="I300" t="b">
-        <v>1</v>
+      <c r="I300" t="s">
+        <v>1082</v>
       </c>
       <c r="J300" t="s">
         <v>733</v>
@@ -11843,8 +11846,8 @@
       <c r="H301" t="s">
         <v>14</v>
       </c>
-      <c r="I301" t="b">
-        <v>1</v>
+      <c r="I301" t="s">
+        <v>1082</v>
       </c>
       <c r="J301" t="s">
         <v>736</v>
@@ -11872,8 +11875,8 @@
       <c r="H302" t="s">
         <v>44</v>
       </c>
-      <c r="I302" t="b">
-        <v>1</v>
+      <c r="I302" t="s">
+        <v>1082</v>
       </c>
       <c r="J302" t="s">
         <v>739</v>
@@ -11901,8 +11904,8 @@
       <c r="H303" t="s">
         <v>14</v>
       </c>
-      <c r="I303" t="b">
-        <v>1</v>
+      <c r="I303" t="s">
+        <v>1082</v>
       </c>
       <c r="J303" t="s">
         <v>741</v>
@@ -11930,8 +11933,8 @@
       <c r="H304" t="s">
         <v>44</v>
       </c>
-      <c r="I304" t="b">
-        <v>1</v>
+      <c r="I304" t="s">
+        <v>1082</v>
       </c>
       <c r="J304" t="s">
         <v>744</v>
@@ -11959,8 +11962,8 @@
       <c r="H305" t="s">
         <v>44</v>
       </c>
-      <c r="I305" t="b">
-        <v>1</v>
+      <c r="I305" t="s">
+        <v>1082</v>
       </c>
       <c r="J305" t="s">
         <v>746</v>
@@ -11988,8 +11991,8 @@
       <c r="H306" t="s">
         <v>14</v>
       </c>
-      <c r="I306" t="b">
-        <v>1</v>
+      <c r="I306" t="s">
+        <v>1082</v>
       </c>
       <c r="J306" t="s">
         <v>748</v>
@@ -12017,8 +12020,8 @@
       <c r="H307" t="s">
         <v>14</v>
       </c>
-      <c r="I307" t="b">
-        <v>1</v>
+      <c r="I307" t="s">
+        <v>1082</v>
       </c>
       <c r="J307" t="s">
         <v>751</v>
@@ -12046,8 +12049,8 @@
       <c r="H308" t="s">
         <v>14</v>
       </c>
-      <c r="I308" t="b">
-        <v>1</v>
+      <c r="I308" t="s">
+        <v>1082</v>
       </c>
       <c r="J308" t="s">
         <v>753</v>
@@ -12075,8 +12078,8 @@
       <c r="H309" t="s">
         <v>44</v>
       </c>
-      <c r="I309" t="b">
-        <v>1</v>
+      <c r="I309" t="s">
+        <v>1082</v>
       </c>
       <c r="J309" t="s">
         <v>755</v>
@@ -12104,8 +12107,8 @@
       <c r="H310" t="s">
         <v>14</v>
       </c>
-      <c r="I310" t="b">
-        <v>1</v>
+      <c r="I310" t="s">
+        <v>1082</v>
       </c>
       <c r="J310" t="s">
         <v>757</v>
@@ -12133,8 +12136,8 @@
       <c r="H311" t="s">
         <v>44</v>
       </c>
-      <c r="I311" t="b">
-        <v>1</v>
+      <c r="I311" t="s">
+        <v>1082</v>
       </c>
       <c r="J311" t="s">
         <v>759</v>
@@ -12162,8 +12165,8 @@
       <c r="H312" t="s">
         <v>14</v>
       </c>
-      <c r="I312" t="b">
-        <v>1</v>
+      <c r="I312" t="s">
+        <v>1082</v>
       </c>
       <c r="J312" t="s">
         <v>761</v>
@@ -12191,8 +12194,8 @@
       <c r="H313" t="s">
         <v>44</v>
       </c>
-      <c r="I313" t="b">
-        <v>1</v>
+      <c r="I313" t="s">
+        <v>1082</v>
       </c>
       <c r="J313" t="s">
         <v>763</v>
@@ -12220,8 +12223,8 @@
       <c r="H314" t="s">
         <v>14</v>
       </c>
-      <c r="I314" t="b">
-        <v>1</v>
+      <c r="I314" t="s">
+        <v>1082</v>
       </c>
       <c r="J314" t="s">
         <v>765</v>
@@ -12249,8 +12252,8 @@
       <c r="H315" t="s">
         <v>44</v>
       </c>
-      <c r="I315" t="b">
-        <v>1</v>
+      <c r="I315" t="s">
+        <v>1082</v>
       </c>
       <c r="J315" t="s">
         <v>767</v>
@@ -12278,8 +12281,8 @@
       <c r="H316" t="s">
         <v>14</v>
       </c>
-      <c r="I316" t="b">
-        <v>1</v>
+      <c r="I316" t="s">
+        <v>1082</v>
       </c>
       <c r="J316" t="s">
         <v>769</v>
@@ -12307,8 +12310,8 @@
       <c r="H317" t="s">
         <v>14</v>
       </c>
-      <c r="I317" t="b">
-        <v>1</v>
+      <c r="I317" t="s">
+        <v>1082</v>
       </c>
       <c r="J317" t="s">
         <v>771</v>
@@ -12336,8 +12339,8 @@
       <c r="H318" t="s">
         <v>14</v>
       </c>
-      <c r="I318" t="b">
-        <v>1</v>
+      <c r="I318" t="s">
+        <v>1082</v>
       </c>
       <c r="J318" t="s">
         <v>773</v>
@@ -12365,8 +12368,8 @@
       <c r="H319" t="s">
         <v>14</v>
       </c>
-      <c r="I319" t="b">
-        <v>1</v>
+      <c r="I319" t="s">
+        <v>1082</v>
       </c>
       <c r="J319" t="s">
         <v>775</v>
@@ -12394,8 +12397,8 @@
       <c r="H320" t="s">
         <v>44</v>
       </c>
-      <c r="I320" t="b">
-        <v>1</v>
+      <c r="I320" t="s">
+        <v>1082</v>
       </c>
       <c r="J320" t="s">
         <v>777</v>
@@ -12423,8 +12426,8 @@
       <c r="H321" t="s">
         <v>14</v>
       </c>
-      <c r="I321" t="b">
-        <v>1</v>
+      <c r="I321" t="s">
+        <v>1082</v>
       </c>
       <c r="J321" t="s">
         <v>779</v>
@@ -12452,8 +12455,8 @@
       <c r="H322" t="s">
         <v>65</v>
       </c>
-      <c r="I322" t="b">
-        <v>1</v>
+      <c r="I322" t="s">
+        <v>1082</v>
       </c>
       <c r="J322" t="s">
         <v>781</v>
@@ -12481,8 +12484,8 @@
       <c r="H323" t="s">
         <v>68</v>
       </c>
-      <c r="I323" t="b">
-        <v>1</v>
+      <c r="I323" t="s">
+        <v>1082</v>
       </c>
       <c r="J323" t="s">
         <v>783</v>
@@ -12510,8 +12513,8 @@
       <c r="H324" t="s">
         <v>74</v>
       </c>
-      <c r="I324" t="b">
-        <v>1</v>
+      <c r="I324" t="s">
+        <v>1082</v>
       </c>
       <c r="J324" t="s">
         <v>785</v>
@@ -12539,8 +12542,8 @@
       <c r="H325" t="s">
         <v>14</v>
       </c>
-      <c r="I325" t="b">
-        <v>1</v>
+      <c r="I325" t="s">
+        <v>1082</v>
       </c>
       <c r="J325" t="s">
         <v>787</v>
@@ -12568,8 +12571,8 @@
       <c r="H326" t="s">
         <v>44</v>
       </c>
-      <c r="I326" t="b">
-        <v>1</v>
+      <c r="I326" t="s">
+        <v>1082</v>
       </c>
       <c r="J326" t="s">
         <v>789</v>
@@ -12597,8 +12600,8 @@
       <c r="H327" t="s">
         <v>14</v>
       </c>
-      <c r="I327" t="b">
-        <v>1</v>
+      <c r="I327" t="s">
+        <v>1082</v>
       </c>
       <c r="J327" t="s">
         <v>791</v>
@@ -12626,8 +12629,8 @@
       <c r="H328" t="s">
         <v>44</v>
       </c>
-      <c r="I328" t="b">
-        <v>1</v>
+      <c r="I328" t="s">
+        <v>1082</v>
       </c>
       <c r="J328" t="s">
         <v>793</v>
@@ -12655,8 +12658,8 @@
       <c r="H329" t="s">
         <v>14</v>
       </c>
-      <c r="I329" t="b">
-        <v>1</v>
+      <c r="I329" t="s">
+        <v>1082</v>
       </c>
       <c r="J329" t="s">
         <v>795</v>
@@ -12684,8 +12687,8 @@
       <c r="H330" t="s">
         <v>44</v>
       </c>
-      <c r="I330" t="b">
-        <v>1</v>
+      <c r="I330" t="s">
+        <v>1082</v>
       </c>
       <c r="J330" t="s">
         <v>797</v>
@@ -12713,8 +12716,8 @@
       <c r="H331" t="s">
         <v>14</v>
       </c>
-      <c r="I331" t="b">
-        <v>1</v>
+      <c r="I331" t="s">
+        <v>1082</v>
       </c>
       <c r="J331" t="s">
         <v>799</v>
@@ -12742,8 +12745,8 @@
       <c r="H332" t="s">
         <v>14</v>
       </c>
-      <c r="I332" t="b">
-        <v>1</v>
+      <c r="I332" t="s">
+        <v>1082</v>
       </c>
       <c r="J332" t="s">
         <v>801</v>
@@ -12771,8 +12774,8 @@
       <c r="H333" t="s">
         <v>44</v>
       </c>
-      <c r="I333" t="b">
-        <v>1</v>
+      <c r="I333" t="s">
+        <v>1082</v>
       </c>
       <c r="J333" t="s">
         <v>803</v>
@@ -12800,8 +12803,8 @@
       <c r="H334" t="s">
         <v>14</v>
       </c>
-      <c r="I334" t="b">
-        <v>1</v>
+      <c r="I334" t="s">
+        <v>1082</v>
       </c>
       <c r="J334" t="s">
         <v>805</v>
@@ -12829,8 +12832,8 @@
       <c r="H335" t="s">
         <v>14</v>
       </c>
-      <c r="I335" t="b">
-        <v>1</v>
+      <c r="I335" t="s">
+        <v>1082</v>
       </c>
       <c r="J335" t="s">
         <v>807</v>
@@ -12858,8 +12861,8 @@
       <c r="H336" t="s">
         <v>14</v>
       </c>
-      <c r="I336" t="b">
-        <v>1</v>
+      <c r="I336" t="s">
+        <v>1082</v>
       </c>
       <c r="J336" t="s">
         <v>809</v>
@@ -12887,8 +12890,8 @@
       <c r="H337" t="s">
         <v>44</v>
       </c>
-      <c r="I337" t="b">
-        <v>1</v>
+      <c r="I337" t="s">
+        <v>1082</v>
       </c>
       <c r="J337" t="s">
         <v>811</v>
@@ -12916,8 +12919,8 @@
       <c r="H338" t="s">
         <v>14</v>
       </c>
-      <c r="I338" t="b">
-        <v>1</v>
+      <c r="I338" t="s">
+        <v>1082</v>
       </c>
       <c r="J338" t="s">
         <v>813</v>
@@ -12945,8 +12948,8 @@
       <c r="H339" t="s">
         <v>14</v>
       </c>
-      <c r="I339" t="b">
-        <v>1</v>
+      <c r="I339" t="s">
+        <v>1082</v>
       </c>
       <c r="J339" t="s">
         <v>815</v>
@@ -12974,8 +12977,8 @@
       <c r="H340" t="s">
         <v>44</v>
       </c>
-      <c r="I340" t="b">
-        <v>1</v>
+      <c r="I340" t="s">
+        <v>1082</v>
       </c>
       <c r="J340" t="s">
         <v>817</v>
@@ -13003,8 +13006,8 @@
       <c r="H341" t="s">
         <v>14</v>
       </c>
-      <c r="I341" t="b">
-        <v>1</v>
+      <c r="I341" t="s">
+        <v>1082</v>
       </c>
       <c r="J341" t="s">
         <v>819</v>
@@ -13032,8 +13035,8 @@
       <c r="H342" t="s">
         <v>44</v>
       </c>
-      <c r="I342" t="b">
-        <v>1</v>
+      <c r="I342" t="s">
+        <v>1082</v>
       </c>
       <c r="J342" t="s">
         <v>821</v>
@@ -13061,8 +13064,8 @@
       <c r="H343" t="s">
         <v>14</v>
       </c>
-      <c r="I343" t="b">
-        <v>1</v>
+      <c r="I343" t="s">
+        <v>1082</v>
       </c>
       <c r="J343" t="s">
         <v>823</v>
@@ -13090,8 +13093,8 @@
       <c r="H344" t="s">
         <v>14</v>
       </c>
-      <c r="I344" t="b">
-        <v>1</v>
+      <c r="I344" t="s">
+        <v>1082</v>
       </c>
       <c r="J344" t="s">
         <v>825</v>
@@ -13119,8 +13122,8 @@
       <c r="H345" t="s">
         <v>44</v>
       </c>
-      <c r="I345" t="b">
-        <v>1</v>
+      <c r="I345" t="s">
+        <v>1082</v>
       </c>
       <c r="J345" t="s">
         <v>827</v>
@@ -13148,8 +13151,8 @@
       <c r="H346" t="s">
         <v>14</v>
       </c>
-      <c r="I346" t="b">
-        <v>1</v>
+      <c r="I346" t="s">
+        <v>1082</v>
       </c>
       <c r="J346" t="s">
         <v>829</v>
@@ -13177,8 +13180,8 @@
       <c r="H347" t="s">
         <v>14</v>
       </c>
-      <c r="I347" t="b">
-        <v>1</v>
+      <c r="I347" t="s">
+        <v>1082</v>
       </c>
       <c r="J347" t="s">
         <v>831</v>
@@ -13206,8 +13209,8 @@
       <c r="H348" t="s">
         <v>44</v>
       </c>
-      <c r="I348" t="b">
-        <v>1</v>
+      <c r="I348" t="s">
+        <v>1082</v>
       </c>
       <c r="J348" t="s">
         <v>833</v>
@@ -13235,8 +13238,8 @@
       <c r="H349" t="s">
         <v>14</v>
       </c>
-      <c r="I349" t="b">
-        <v>1</v>
+      <c r="I349" t="s">
+        <v>1082</v>
       </c>
       <c r="J349" t="s">
         <v>835</v>
@@ -13264,8 +13267,8 @@
       <c r="H350" t="s">
         <v>44</v>
       </c>
-      <c r="I350" t="b">
-        <v>1</v>
+      <c r="I350" t="s">
+        <v>1082</v>
       </c>
       <c r="J350" t="s">
         <v>837</v>
@@ -13293,8 +13296,8 @@
       <c r="H351" t="s">
         <v>14</v>
       </c>
-      <c r="I351" t="b">
-        <v>1</v>
+      <c r="I351" t="s">
+        <v>1082</v>
       </c>
       <c r="J351" t="s">
         <v>839</v>
@@ -13322,8 +13325,8 @@
       <c r="H352" t="s">
         <v>44</v>
       </c>
-      <c r="I352" t="b">
-        <v>1</v>
+      <c r="I352" t="s">
+        <v>1082</v>
       </c>
       <c r="J352" t="s">
         <v>841</v>
@@ -13351,8 +13354,8 @@
       <c r="H353" t="s">
         <v>14</v>
       </c>
-      <c r="I353" t="b">
-        <v>1</v>
+      <c r="I353" t="s">
+        <v>1082</v>
       </c>
       <c r="J353" t="s">
         <v>843</v>
@@ -13380,8 +13383,8 @@
       <c r="H354" t="s">
         <v>14</v>
       </c>
-      <c r="I354" t="b">
-        <v>1</v>
+      <c r="I354" t="s">
+        <v>1082</v>
       </c>
       <c r="J354" t="s">
         <v>846</v>
@@ -13409,8 +13412,8 @@
       <c r="H355" t="s">
         <v>44</v>
       </c>
-      <c r="I355" t="b">
-        <v>1</v>
+      <c r="I355" t="s">
+        <v>1082</v>
       </c>
       <c r="J355" t="s">
         <v>848</v>
@@ -13438,8 +13441,8 @@
       <c r="H356" t="s">
         <v>14</v>
       </c>
-      <c r="I356" t="b">
-        <v>1</v>
+      <c r="I356" t="s">
+        <v>1082</v>
       </c>
       <c r="J356" t="s">
         <v>850</v>
@@ -13467,8 +13470,8 @@
       <c r="H357" t="s">
         <v>14</v>
       </c>
-      <c r="I357" t="b">
-        <v>1</v>
+      <c r="I357" t="s">
+        <v>1082</v>
       </c>
       <c r="J357" t="s">
         <v>852</v>
@@ -13496,8 +13499,8 @@
       <c r="H358" t="s">
         <v>44</v>
       </c>
-      <c r="I358" t="b">
-        <v>1</v>
+      <c r="I358" t="s">
+        <v>1082</v>
       </c>
       <c r="J358" t="s">
         <v>854</v>
@@ -13525,8 +13528,8 @@
       <c r="H359" t="s">
         <v>14</v>
       </c>
-      <c r="I359" t="b">
-        <v>1</v>
+      <c r="I359" t="s">
+        <v>1082</v>
       </c>
       <c r="J359" t="s">
         <v>856</v>
@@ -13554,8 +13557,8 @@
       <c r="H360" t="s">
         <v>65</v>
       </c>
-      <c r="I360" t="b">
-        <v>1</v>
+      <c r="I360" t="s">
+        <v>1082</v>
       </c>
       <c r="J360" t="s">
         <v>858</v>
@@ -13583,8 +13586,8 @@
       <c r="H361" t="s">
         <v>74</v>
       </c>
-      <c r="I361" t="b">
-        <v>1</v>
+      <c r="I361" t="s">
+        <v>1082</v>
       </c>
       <c r="J361" t="s">
         <v>860</v>
@@ -13612,8 +13615,8 @@
       <c r="H362" t="s">
         <v>44</v>
       </c>
-      <c r="I362" t="b">
-        <v>1</v>
+      <c r="I362" t="s">
+        <v>1082</v>
       </c>
       <c r="J362" t="s">
         <v>862</v>
@@ -13641,8 +13644,8 @@
       <c r="H363" t="s">
         <v>44</v>
       </c>
-      <c r="I363" t="b">
-        <v>1</v>
+      <c r="I363" t="s">
+        <v>1082</v>
       </c>
       <c r="J363" t="s">
         <v>864</v>
@@ -13670,8 +13673,8 @@
       <c r="H364" t="s">
         <v>44</v>
       </c>
-      <c r="I364" t="b">
-        <v>1</v>
+      <c r="I364" t="s">
+        <v>1082</v>
       </c>
       <c r="J364" t="s">
         <v>866</v>
@@ -13699,8 +13702,8 @@
       <c r="H365" t="s">
         <v>44</v>
       </c>
-      <c r="I365" t="b">
-        <v>1</v>
+      <c r="I365" t="s">
+        <v>1082</v>
       </c>
       <c r="J365" t="s">
         <v>868</v>
@@ -13728,8 +13731,8 @@
       <c r="H366" t="s">
         <v>44</v>
       </c>
-      <c r="I366" t="b">
-        <v>1</v>
+      <c r="I366" t="s">
+        <v>1082</v>
       </c>
       <c r="J366" t="s">
         <v>870</v>
@@ -13757,8 +13760,8 @@
       <c r="H367" t="s">
         <v>14</v>
       </c>
-      <c r="I367" t="b">
-        <v>1</v>
+      <c r="I367" t="s">
+        <v>1082</v>
       </c>
       <c r="J367" t="s">
         <v>872</v>
@@ -13786,8 +13789,8 @@
       <c r="H368" t="s">
         <v>14</v>
       </c>
-      <c r="I368" t="b">
-        <v>1</v>
+      <c r="I368" t="s">
+        <v>1082</v>
       </c>
       <c r="J368" t="s">
         <v>874</v>
@@ -13815,8 +13818,8 @@
       <c r="H369" t="s">
         <v>44</v>
       </c>
-      <c r="I369" t="b">
-        <v>1</v>
+      <c r="I369" t="s">
+        <v>1082</v>
       </c>
       <c r="J369" t="s">
         <v>876</v>
@@ -13844,8 +13847,8 @@
       <c r="H370" t="s">
         <v>14</v>
       </c>
-      <c r="I370" t="b">
-        <v>1</v>
+      <c r="I370" t="s">
+        <v>1082</v>
       </c>
       <c r="J370" t="s">
         <v>878</v>
@@ -13873,8 +13876,8 @@
       <c r="H371" t="s">
         <v>44</v>
       </c>
-      <c r="I371" t="b">
-        <v>1</v>
+      <c r="I371" t="s">
+        <v>1082</v>
       </c>
       <c r="J371" t="s">
         <v>880</v>
@@ -13902,8 +13905,8 @@
       <c r="H372" t="s">
         <v>68</v>
       </c>
-      <c r="I372" t="b">
-        <v>1</v>
+      <c r="I372" t="s">
+        <v>1082</v>
       </c>
       <c r="J372" t="s">
         <v>883</v>
@@ -13931,8 +13934,8 @@
       <c r="H373" t="s">
         <v>68</v>
       </c>
-      <c r="I373" t="b">
-        <v>1</v>
+      <c r="I373" t="s">
+        <v>1082</v>
       </c>
       <c r="J373" t="s">
         <v>886</v>
@@ -13960,8 +13963,8 @@
       <c r="H374" t="s">
         <v>44</v>
       </c>
-      <c r="I374" t="b">
-        <v>1</v>
+      <c r="I374" t="s">
+        <v>1082</v>
       </c>
       <c r="J374" t="s">
         <v>888</v>
@@ -13989,8 +13992,8 @@
       <c r="H375" t="s">
         <v>44</v>
       </c>
-      <c r="I375" t="b">
-        <v>1</v>
+      <c r="I375" t="s">
+        <v>1082</v>
       </c>
       <c r="J375" t="s">
         <v>890</v>
@@ -14018,8 +14021,8 @@
       <c r="H376" t="s">
         <v>14</v>
       </c>
-      <c r="I376" t="b">
-        <v>1</v>
+      <c r="I376" t="s">
+        <v>1082</v>
       </c>
       <c r="J376" t="s">
         <v>892</v>
@@ -14047,8 +14050,8 @@
       <c r="H377" t="s">
         <v>14</v>
       </c>
-      <c r="I377" t="b">
-        <v>1</v>
+      <c r="I377" t="s">
+        <v>1082</v>
       </c>
       <c r="J377" t="s">
         <v>894</v>
@@ -14076,8 +14079,8 @@
       <c r="H378" t="s">
         <v>68</v>
       </c>
-      <c r="I378" t="b">
-        <v>1</v>
+      <c r="I378" t="s">
+        <v>1082</v>
       </c>
       <c r="J378" t="s">
         <v>897</v>
@@ -14105,8 +14108,8 @@
       <c r="H379" t="s">
         <v>14</v>
       </c>
-      <c r="I379" t="b">
-        <v>1</v>
+      <c r="I379" t="s">
+        <v>1082</v>
       </c>
       <c r="J379" t="s">
         <v>899</v>
@@ -14134,8 +14137,8 @@
       <c r="H380" t="s">
         <v>44</v>
       </c>
-      <c r="I380" t="b">
-        <v>1</v>
+      <c r="I380" t="s">
+        <v>1082</v>
       </c>
       <c r="J380" t="s">
         <v>901</v>
@@ -14163,8 +14166,8 @@
       <c r="H381" t="s">
         <v>44</v>
       </c>
-      <c r="I381" t="b">
-        <v>1</v>
+      <c r="I381" t="s">
+        <v>1082</v>
       </c>
       <c r="J381" t="s">
         <v>903</v>
@@ -14192,8 +14195,8 @@
       <c r="H382" t="s">
         <v>14</v>
       </c>
-      <c r="I382" t="b">
-        <v>1</v>
+      <c r="I382" t="s">
+        <v>1082</v>
       </c>
       <c r="J382" t="s">
         <v>905</v>
@@ -14221,8 +14224,8 @@
       <c r="H383" t="s">
         <v>68</v>
       </c>
-      <c r="I383" t="b">
-        <v>1</v>
+      <c r="I383" t="s">
+        <v>1082</v>
       </c>
       <c r="J383" t="s">
         <v>908</v>
@@ -14250,8 +14253,8 @@
       <c r="H384" t="s">
         <v>44</v>
       </c>
-      <c r="I384" t="b">
-        <v>1</v>
+      <c r="I384" t="s">
+        <v>1082</v>
       </c>
       <c r="J384" t="s">
         <v>910</v>
@@ -14279,8 +14282,8 @@
       <c r="H385" t="s">
         <v>68</v>
       </c>
-      <c r="I385" t="b">
-        <v>1</v>
+      <c r="I385" t="s">
+        <v>1082</v>
       </c>
       <c r="J385" t="s">
         <v>912</v>
@@ -14308,8 +14311,8 @@
       <c r="H386" t="s">
         <v>44</v>
       </c>
-      <c r="I386" t="b">
-        <v>1</v>
+      <c r="I386" t="s">
+        <v>1082</v>
       </c>
       <c r="J386" t="s">
         <v>914</v>
@@ -14337,8 +14340,8 @@
       <c r="H387" t="s">
         <v>44</v>
       </c>
-      <c r="I387" t="b">
-        <v>1</v>
+      <c r="I387" t="s">
+        <v>1082</v>
       </c>
       <c r="J387" t="s">
         <v>917</v>
@@ -14366,8 +14369,8 @@
       <c r="H388" t="s">
         <v>14</v>
       </c>
-      <c r="I388" t="b">
-        <v>1</v>
+      <c r="I388" t="s">
+        <v>1082</v>
       </c>
       <c r="J388" t="s">
         <v>919</v>
@@ -14395,8 +14398,8 @@
       <c r="H389" t="s">
         <v>44</v>
       </c>
-      <c r="I389" t="b">
-        <v>1</v>
+      <c r="I389" t="s">
+        <v>1082</v>
       </c>
       <c r="J389" t="s">
         <v>922</v>
@@ -14424,8 +14427,8 @@
       <c r="H390" t="s">
         <v>14</v>
       </c>
-      <c r="I390" t="b">
-        <v>1</v>
+      <c r="I390" t="s">
+        <v>1082</v>
       </c>
       <c r="J390" t="s">
         <v>924</v>
@@ -14453,8 +14456,8 @@
       <c r="H391" t="s">
         <v>14</v>
       </c>
-      <c r="I391" t="b">
-        <v>1</v>
+      <c r="I391" t="s">
+        <v>1082</v>
       </c>
       <c r="J391" t="s">
         <v>926</v>
@@ -14482,8 +14485,8 @@
       <c r="H392" t="s">
         <v>44</v>
       </c>
-      <c r="I392" t="b">
-        <v>1</v>
+      <c r="I392" t="s">
+        <v>1082</v>
       </c>
       <c r="J392" t="s">
         <v>928</v>
@@ -14511,8 +14514,8 @@
       <c r="H393" t="s">
         <v>44</v>
       </c>
-      <c r="I393" t="b">
-        <v>1</v>
+      <c r="I393" t="s">
+        <v>1082</v>
       </c>
       <c r="J393" t="s">
         <v>931</v>
@@ -14540,8 +14543,8 @@
       <c r="H394" t="s">
         <v>14</v>
       </c>
-      <c r="I394" t="b">
-        <v>1</v>
+      <c r="I394" t="s">
+        <v>1082</v>
       </c>
       <c r="J394" t="s">
         <v>933</v>
@@ -14569,8 +14572,8 @@
       <c r="H395" t="s">
         <v>44</v>
       </c>
-      <c r="I395" t="b">
-        <v>1</v>
+      <c r="I395" t="s">
+        <v>1082</v>
       </c>
       <c r="J395" t="s">
         <v>935</v>
@@ -14598,8 +14601,8 @@
       <c r="H396" t="s">
         <v>14</v>
       </c>
-      <c r="I396" t="b">
-        <v>1</v>
+      <c r="I396" t="s">
+        <v>1082</v>
       </c>
       <c r="J396" t="s">
         <v>937</v>
@@ -14627,8 +14630,8 @@
       <c r="H397" t="s">
         <v>44</v>
       </c>
-      <c r="I397" t="b">
-        <v>1</v>
+      <c r="I397" t="s">
+        <v>1082</v>
       </c>
       <c r="J397" t="s">
         <v>939</v>
@@ -14656,8 +14659,8 @@
       <c r="H398" t="s">
         <v>14</v>
       </c>
-      <c r="I398" t="b">
-        <v>1</v>
+      <c r="I398" t="s">
+        <v>1082</v>
       </c>
       <c r="J398" t="s">
         <v>941</v>
@@ -14685,8 +14688,8 @@
       <c r="H399" t="s">
         <v>44</v>
       </c>
-      <c r="I399" t="b">
-        <v>1</v>
+      <c r="I399" t="s">
+        <v>1082</v>
       </c>
       <c r="J399" t="s">
         <v>943</v>
@@ -14714,8 +14717,8 @@
       <c r="H400" t="s">
         <v>14</v>
       </c>
-      <c r="I400" t="b">
-        <v>1</v>
+      <c r="I400" t="s">
+        <v>1082</v>
       </c>
       <c r="J400" t="s">
         <v>945</v>
@@ -14743,8 +14746,8 @@
       <c r="H401" t="s">
         <v>44</v>
       </c>
-      <c r="I401" t="b">
-        <v>1</v>
+      <c r="I401" t="s">
+        <v>1082</v>
       </c>
       <c r="J401" t="s">
         <v>947</v>
@@ -14772,8 +14775,8 @@
       <c r="H402" t="s">
         <v>44</v>
       </c>
-      <c r="I402" t="b">
-        <v>1</v>
+      <c r="I402" t="s">
+        <v>1082</v>
       </c>
       <c r="J402" t="s">
         <v>949</v>
@@ -14801,8 +14804,8 @@
       <c r="H403" t="s">
         <v>44</v>
       </c>
-      <c r="I403" t="b">
-        <v>1</v>
+      <c r="I403" t="s">
+        <v>1082</v>
       </c>
       <c r="J403" t="s">
         <v>951</v>
@@ -14830,8 +14833,8 @@
       <c r="H404" t="s">
         <v>14</v>
       </c>
-      <c r="I404" t="b">
-        <v>1</v>
+      <c r="I404" t="s">
+        <v>1082</v>
       </c>
       <c r="J404" t="s">
         <v>953</v>
@@ -14859,8 +14862,8 @@
       <c r="H405" t="s">
         <v>14</v>
       </c>
-      <c r="I405" t="b">
-        <v>1</v>
+      <c r="I405" t="s">
+        <v>1082</v>
       </c>
       <c r="J405" t="s">
         <v>955</v>
@@ -14888,8 +14891,8 @@
       <c r="H406" t="s">
         <v>14</v>
       </c>
-      <c r="I406" t="b">
-        <v>1</v>
+      <c r="I406" t="s">
+        <v>1082</v>
       </c>
       <c r="J406" t="s">
         <v>957</v>
@@ -14917,8 +14920,8 @@
       <c r="H407" t="s">
         <v>68</v>
       </c>
-      <c r="I407" t="b">
-        <v>1</v>
+      <c r="I407" t="s">
+        <v>1082</v>
       </c>
       <c r="J407" t="s">
         <v>959</v>
@@ -14946,8 +14949,8 @@
       <c r="H408" t="s">
         <v>74</v>
       </c>
-      <c r="I408" t="b">
-        <v>1</v>
+      <c r="I408" t="s">
+        <v>1082</v>
       </c>
       <c r="J408" t="s">
         <v>961</v>
@@ -14975,8 +14978,8 @@
       <c r="H409" t="s">
         <v>44</v>
       </c>
-      <c r="I409" t="b">
-        <v>1</v>
+      <c r="I409" t="s">
+        <v>1082</v>
       </c>
       <c r="J409" t="s">
         <v>963</v>
@@ -15004,8 +15007,8 @@
       <c r="H410" t="s">
         <v>14</v>
       </c>
-      <c r="I410" t="b">
-        <v>1</v>
+      <c r="I410" t="s">
+        <v>1082</v>
       </c>
       <c r="J410" t="s">
         <v>965</v>
@@ -15033,8 +15036,8 @@
       <c r="H411" t="s">
         <v>14</v>
       </c>
-      <c r="I411" t="b">
-        <v>1</v>
+      <c r="I411" t="s">
+        <v>1082</v>
       </c>
       <c r="J411" t="s">
         <v>967</v>
@@ -15062,8 +15065,8 @@
       <c r="H412" t="s">
         <v>44</v>
       </c>
-      <c r="I412" t="b">
-        <v>1</v>
+      <c r="I412" t="s">
+        <v>1082</v>
       </c>
       <c r="J412" t="s">
         <v>969</v>
@@ -15091,8 +15094,8 @@
       <c r="H413" t="s">
         <v>14</v>
       </c>
-      <c r="I413" t="b">
-        <v>1</v>
+      <c r="I413" t="s">
+        <v>1082</v>
       </c>
       <c r="J413" t="s">
         <v>971</v>
@@ -15120,8 +15123,8 @@
       <c r="H414" t="s">
         <v>14</v>
       </c>
-      <c r="I414" t="b">
-        <v>1</v>
+      <c r="I414" t="s">
+        <v>1082</v>
       </c>
       <c r="J414" t="s">
         <v>973</v>
@@ -15149,8 +15152,8 @@
       <c r="H415" t="s">
         <v>44</v>
       </c>
-      <c r="I415" t="b">
-        <v>1</v>
+      <c r="I415" t="s">
+        <v>1082</v>
       </c>
       <c r="J415" t="s">
         <v>975</v>
@@ -15178,8 +15181,8 @@
       <c r="H416" t="s">
         <v>14</v>
       </c>
-      <c r="I416" t="b">
-        <v>1</v>
+      <c r="I416" t="s">
+        <v>1082</v>
       </c>
       <c r="J416" t="s">
         <v>977</v>
@@ -15207,8 +15210,8 @@
       <c r="H417" t="s">
         <v>14</v>
       </c>
-      <c r="I417" t="b">
-        <v>1</v>
+      <c r="I417" t="s">
+        <v>1082</v>
       </c>
       <c r="J417" t="s">
         <v>979</v>
@@ -15236,8 +15239,8 @@
       <c r="H418" t="s">
         <v>44</v>
       </c>
-      <c r="I418" t="b">
-        <v>1</v>
+      <c r="I418" t="s">
+        <v>1082</v>
       </c>
       <c r="J418" t="s">
         <v>981</v>
@@ -15265,8 +15268,8 @@
       <c r="H419" t="s">
         <v>14</v>
       </c>
-      <c r="I419" t="b">
-        <v>1</v>
+      <c r="I419" t="s">
+        <v>1082</v>
       </c>
       <c r="J419" t="s">
         <v>983</v>
@@ -15294,8 +15297,8 @@
       <c r="H420" t="s">
         <v>14</v>
       </c>
-      <c r="I420" t="b">
-        <v>1</v>
+      <c r="I420" t="s">
+        <v>1082</v>
       </c>
       <c r="J420" t="s">
         <v>985</v>
@@ -15323,8 +15326,8 @@
       <c r="H421" t="s">
         <v>44</v>
       </c>
-      <c r="I421" t="b">
-        <v>1</v>
+      <c r="I421" t="s">
+        <v>1082</v>
       </c>
       <c r="J421" t="s">
         <v>987</v>
@@ -15352,8 +15355,8 @@
       <c r="H422" t="s">
         <v>14</v>
       </c>
-      <c r="I422" t="b">
-        <v>1</v>
+      <c r="I422" t="s">
+        <v>1082</v>
       </c>
       <c r="J422" t="s">
         <v>989</v>
@@ -15381,8 +15384,8 @@
       <c r="H423" t="s">
         <v>14</v>
       </c>
-      <c r="I423" t="b">
-        <v>1</v>
+      <c r="I423" t="s">
+        <v>1082</v>
       </c>
       <c r="J423" t="s">
         <v>991</v>
@@ -15410,8 +15413,8 @@
       <c r="H424" t="s">
         <v>44</v>
       </c>
-      <c r="I424" t="b">
-        <v>1</v>
+      <c r="I424" t="s">
+        <v>1082</v>
       </c>
       <c r="J424" t="s">
         <v>993</v>
@@ -15439,8 +15442,8 @@
       <c r="H425" t="s">
         <v>14</v>
       </c>
-      <c r="I425" t="b">
-        <v>1</v>
+      <c r="I425" t="s">
+        <v>1082</v>
       </c>
       <c r="J425" t="s">
         <v>995</v>
@@ -15468,8 +15471,8 @@
       <c r="H426" t="s">
         <v>14</v>
       </c>
-      <c r="I426" t="b">
-        <v>1</v>
+      <c r="I426" t="s">
+        <v>1082</v>
       </c>
       <c r="J426" t="s">
         <v>997</v>
@@ -15497,8 +15500,8 @@
       <c r="H427" t="s">
         <v>14</v>
       </c>
-      <c r="I427" t="b">
-        <v>1</v>
+      <c r="I427" t="s">
+        <v>1082</v>
       </c>
       <c r="J427" t="s">
         <v>999</v>
@@ -15526,8 +15529,8 @@
       <c r="H428" t="s">
         <v>44</v>
       </c>
-      <c r="I428" t="b">
-        <v>1</v>
+      <c r="I428" t="s">
+        <v>1082</v>
       </c>
       <c r="J428" t="s">
         <v>1001</v>
@@ -15555,8 +15558,8 @@
       <c r="H429" t="s">
         <v>14</v>
       </c>
-      <c r="I429" t="b">
-        <v>1</v>
+      <c r="I429" t="s">
+        <v>1082</v>
       </c>
       <c r="J429" t="s">
         <v>1003</v>
@@ -15584,8 +15587,8 @@
       <c r="H430" t="s">
         <v>14</v>
       </c>
-      <c r="I430" t="b">
-        <v>1</v>
+      <c r="I430" t="s">
+        <v>1082</v>
       </c>
       <c r="J430" t="s">
         <v>1005</v>
@@ -15613,8 +15616,8 @@
       <c r="H431" t="s">
         <v>44</v>
       </c>
-      <c r="I431" t="b">
-        <v>1</v>
+      <c r="I431" t="s">
+        <v>1082</v>
       </c>
       <c r="J431" t="s">
         <v>1007</v>
@@ -15642,8 +15645,8 @@
       <c r="H432" t="s">
         <v>44</v>
       </c>
-      <c r="I432" t="b">
-        <v>1</v>
+      <c r="I432" t="s">
+        <v>1082</v>
       </c>
       <c r="J432" t="s">
         <v>1009</v>
@@ -15671,8 +15674,8 @@
       <c r="H433" t="s">
         <v>14</v>
       </c>
-      <c r="I433" t="b">
-        <v>1</v>
+      <c r="I433" t="s">
+        <v>1082</v>
       </c>
       <c r="J433" t="s">
         <v>1011</v>
@@ -15700,8 +15703,8 @@
       <c r="H434" t="s">
         <v>44</v>
       </c>
-      <c r="I434" t="b">
-        <v>1</v>
+      <c r="I434" t="s">
+        <v>1082</v>
       </c>
       <c r="J434" t="s">
         <v>1013</v>
@@ -15729,8 +15732,8 @@
       <c r="H435" t="s">
         <v>44</v>
       </c>
-      <c r="I435" t="b">
-        <v>1</v>
+      <c r="I435" t="s">
+        <v>1082</v>
       </c>
       <c r="J435" t="s">
         <v>1015</v>
@@ -15758,8 +15761,8 @@
       <c r="H436" t="s">
         <v>14</v>
       </c>
-      <c r="I436" t="b">
-        <v>1</v>
+      <c r="I436" t="s">
+        <v>1082</v>
       </c>
       <c r="J436" t="s">
         <v>1017</v>
@@ -15787,8 +15790,8 @@
       <c r="H437" t="s">
         <v>14</v>
       </c>
-      <c r="I437" t="b">
-        <v>1</v>
+      <c r="I437" t="s">
+        <v>1082</v>
       </c>
       <c r="J437" t="s">
         <v>1019</v>
@@ -15816,8 +15819,8 @@
       <c r="H438" t="s">
         <v>44</v>
       </c>
-      <c r="I438" t="b">
-        <v>1</v>
+      <c r="I438" t="s">
+        <v>1082</v>
       </c>
       <c r="J438" t="s">
         <v>1021</v>
@@ -15845,8 +15848,8 @@
       <c r="H439" t="s">
         <v>14</v>
       </c>
-      <c r="I439" t="b">
-        <v>1</v>
+      <c r="I439" t="s">
+        <v>1082</v>
       </c>
       <c r="J439" t="s">
         <v>1023</v>
@@ -15874,8 +15877,8 @@
       <c r="H440" t="s">
         <v>14</v>
       </c>
-      <c r="I440" t="b">
-        <v>1</v>
+      <c r="I440" t="s">
+        <v>1082</v>
       </c>
       <c r="J440" t="s">
         <v>1025</v>
@@ -15903,8 +15906,8 @@
       <c r="H441" t="s">
         <v>44</v>
       </c>
-      <c r="I441" t="b">
-        <v>1</v>
+      <c r="I441" t="s">
+        <v>1082</v>
       </c>
       <c r="J441" t="s">
         <v>1027</v>
@@ -15932,8 +15935,8 @@
       <c r="H442" t="s">
         <v>14</v>
       </c>
-      <c r="I442" t="b">
-        <v>1</v>
+      <c r="I442" t="s">
+        <v>1082</v>
       </c>
       <c r="J442" t="s">
         <v>1029</v>
@@ -15961,8 +15964,8 @@
       <c r="H443" t="s">
         <v>68</v>
       </c>
-      <c r="I443" t="b">
-        <v>1</v>
+      <c r="I443" t="s">
+        <v>1082</v>
       </c>
       <c r="J443" t="s">
         <v>1031</v>
@@ -15990,8 +15993,8 @@
       <c r="H444" t="s">
         <v>14</v>
       </c>
-      <c r="I444" t="b">
-        <v>1</v>
+      <c r="I444" t="s">
+        <v>1082</v>
       </c>
       <c r="J444" t="s">
         <v>1033</v>
@@ -16019,8 +16022,8 @@
       <c r="H445" t="s">
         <v>14</v>
       </c>
-      <c r="I445" t="b">
-        <v>1</v>
+      <c r="I445" t="s">
+        <v>1082</v>
       </c>
       <c r="J445" t="s">
         <v>1035</v>
@@ -16048,8 +16051,8 @@
       <c r="H446" t="s">
         <v>44</v>
       </c>
-      <c r="I446" t="b">
-        <v>1</v>
+      <c r="I446" t="s">
+        <v>1082</v>
       </c>
       <c r="J446" t="s">
         <v>1037</v>
@@ -16077,8 +16080,8 @@
       <c r="H447" t="s">
         <v>14</v>
       </c>
-      <c r="I447" t="b">
-        <v>1</v>
+      <c r="I447" t="s">
+        <v>1082</v>
       </c>
       <c r="J447" t="s">
         <v>1039</v>
@@ -16106,8 +16109,8 @@
       <c r="H448" t="s">
         <v>14</v>
       </c>
-      <c r="I448" t="b">
-        <v>1</v>
+      <c r="I448" t="s">
+        <v>1082</v>
       </c>
       <c r="J448" t="s">
         <v>1041</v>
@@ -16135,8 +16138,8 @@
       <c r="H449" t="s">
         <v>14</v>
       </c>
-      <c r="I449" t="b">
-        <v>1</v>
+      <c r="I449" t="s">
+        <v>1082</v>
       </c>
       <c r="J449" t="s">
         <v>1043</v>
@@ -16164,8 +16167,8 @@
       <c r="H450" t="s">
         <v>14</v>
       </c>
-      <c r="I450" t="b">
-        <v>1</v>
+      <c r="I450" t="s">
+        <v>1082</v>
       </c>
       <c r="J450" t="s">
         <v>1045</v>
@@ -16193,8 +16196,8 @@
       <c r="H451" t="s">
         <v>14</v>
       </c>
-      <c r="I451" t="b">
-        <v>1</v>
+      <c r="I451" t="s">
+        <v>1082</v>
       </c>
       <c r="J451" t="s">
         <v>1047</v>
@@ -16222,8 +16225,8 @@
       <c r="H452" t="s">
         <v>14</v>
       </c>
-      <c r="I452" t="b">
-        <v>1</v>
+      <c r="I452" t="s">
+        <v>1082</v>
       </c>
       <c r="J452" t="s">
         <v>1049</v>
@@ -16251,8 +16254,8 @@
       <c r="H453" t="s">
         <v>14</v>
       </c>
-      <c r="I453" t="b">
-        <v>1</v>
+      <c r="I453" t="s">
+        <v>1082</v>
       </c>
       <c r="J453" t="s">
         <v>1051</v>
@@ -16280,8 +16283,8 @@
       <c r="H454" t="s">
         <v>14</v>
       </c>
-      <c r="I454" t="b">
-        <v>1</v>
+      <c r="I454" t="s">
+        <v>1082</v>
       </c>
       <c r="J454" t="s">
         <v>1053</v>
@@ -16309,8 +16312,8 @@
       <c r="H455" t="s">
         <v>44</v>
       </c>
-      <c r="I455" t="b">
-        <v>1</v>
+      <c r="I455" t="s">
+        <v>1082</v>
       </c>
       <c r="J455" t="s">
         <v>1055</v>
@@ -16338,8 +16341,8 @@
       <c r="H456" t="s">
         <v>14</v>
       </c>
-      <c r="I456" t="b">
-        <v>1</v>
+      <c r="I456" t="s">
+        <v>1082</v>
       </c>
       <c r="J456" t="s">
         <v>1057</v>
@@ -16367,8 +16370,8 @@
       <c r="H457" t="s">
         <v>44</v>
       </c>
-      <c r="I457" t="b">
-        <v>1</v>
+      <c r="I457" t="s">
+        <v>1082</v>
       </c>
       <c r="J457" t="s">
         <v>1059</v>
@@ -16396,8 +16399,8 @@
       <c r="H458" t="s">
         <v>44</v>
       </c>
-      <c r="I458" t="b">
-        <v>1</v>
+      <c r="I458" t="s">
+        <v>1082</v>
       </c>
       <c r="J458" t="s">
         <v>1061</v>
@@ -16425,8 +16428,8 @@
       <c r="H459" t="s">
         <v>14</v>
       </c>
-      <c r="I459" t="b">
-        <v>1</v>
+      <c r="I459" t="s">
+        <v>1082</v>
       </c>
       <c r="J459" t="s">
         <v>1063</v>
@@ -16454,8 +16457,8 @@
       <c r="H460" t="s">
         <v>44</v>
       </c>
-      <c r="I460" t="b">
-        <v>1</v>
+      <c r="I460" t="s">
+        <v>1082</v>
       </c>
       <c r="J460" t="s">
         <v>1065</v>
@@ -16483,8 +16486,8 @@
       <c r="H461" t="s">
         <v>14</v>
       </c>
-      <c r="I461" t="b">
-        <v>1</v>
+      <c r="I461" t="s">
+        <v>1082</v>
       </c>
       <c r="J461" t="s">
         <v>1067</v>
@@ -16512,8 +16515,8 @@
       <c r="H462" t="s">
         <v>14</v>
       </c>
-      <c r="I462" t="b">
-        <v>1</v>
+      <c r="I462" t="s">
+        <v>1082</v>
       </c>
       <c r="J462" t="s">
         <v>1069</v>
@@ -16541,8 +16544,8 @@
       <c r="H463" t="s">
         <v>44</v>
       </c>
-      <c r="I463" t="b">
-        <v>1</v>
+      <c r="I463" t="s">
+        <v>1082</v>
       </c>
       <c r="J463" t="s">
         <v>1071</v>
@@ -16570,8 +16573,8 @@
       <c r="H464" t="s">
         <v>44</v>
       </c>
-      <c r="I464" t="b">
-        <v>1</v>
+      <c r="I464" t="s">
+        <v>1082</v>
       </c>
       <c r="J464" t="s">
         <v>1073</v>
@@ -16599,8 +16602,8 @@
       <c r="H465" t="s">
         <v>44</v>
       </c>
-      <c r="I465" t="b">
-        <v>1</v>
+      <c r="I465" t="s">
+        <v>1082</v>
       </c>
       <c r="J465" t="s">
         <v>1075</v>
@@ -16628,8 +16631,8 @@
       <c r="H466" t="s">
         <v>14</v>
       </c>
-      <c r="I466" t="b">
-        <v>1</v>
+      <c r="I466" t="s">
+        <v>1082</v>
       </c>
       <c r="J466" t="s">
         <v>1077</v>
@@ -16657,8 +16660,8 @@
       <c r="H467" t="s">
         <v>14</v>
       </c>
-      <c r="I467" t="b">
-        <v>1</v>
+      <c r="I467" t="s">
+        <v>1082</v>
       </c>
       <c r="J467" t="s">
         <v>1079</v>
@@ -16686,8 +16689,8 @@
       <c r="H468" t="s">
         <v>65</v>
       </c>
-      <c r="I468" t="b">
-        <v>1</v>
+      <c r="I468" t="s">
+        <v>1082</v>
       </c>
       <c r="J468" t="s">
         <v>1081</v>
